--- a/uganda/transformations/templates/calibrated/uganda/model_input_variables_uganda_ce_calibrated.xlsx
+++ b/uganda/transformations/templates/calibrated/uganda/model_input_variables_uganda_ce_calibrated.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
-    <sheet name="strategy_id-6005" sheetId="2" r:id="rId2"/>
-    <sheet name="strategy_id-6006" sheetId="3" r:id="rId3"/>
-    <sheet name="strategy_id-6007" sheetId="4" r:id="rId4"/>
+    <sheet name="strategy_id-6003" sheetId="2" r:id="rId2"/>
+    <sheet name="strategy_id-6004" sheetId="3" r:id="rId3"/>
+    <sheet name="strategy_id-6005" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28850,4775 +28850,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="X2">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="Y2">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="Z2">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AA2">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="AB2">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="AC2">
-        <v>0.3043478260869565</v>
-      </c>
-      <c r="AD2">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AE2">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="AF2">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="AG2">
-        <v>0.4782608695652174</v>
-      </c>
-      <c r="AH2">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AI2">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="AJ2">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="AK2">
-        <v>0.6521739130434783</v>
-      </c>
-      <c r="AL2">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AM2">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AN2">
-        <v>0.7826086956521739</v>
-      </c>
-      <c r="AO2">
-        <v>0.8260869565217391</v>
-      </c>
-      <c r="AP2">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="AQ2">
-        <v>0.9130434782608695</v>
-      </c>
-      <c r="AR2">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="AS2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="X3">
-        <v>0.9130434782608696</v>
-      </c>
-      <c r="Y3">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="Z3">
-        <v>0.8260869565217391</v>
-      </c>
-      <c r="AA3">
-        <v>0.7826086956521739</v>
-      </c>
-      <c r="AB3">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AC3">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AD3">
-        <v>0.6521739130434783</v>
-      </c>
-      <c r="AE3">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="AF3">
-        <v>0.5652173913043479</v>
-      </c>
-      <c r="AG3">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AH3">
-        <v>0.4782608695652174</v>
-      </c>
-      <c r="AI3">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="AJ3">
-        <v>0.3913043478260869</v>
-      </c>
-      <c r="AK3">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AL3">
-        <v>0.3043478260869565</v>
-      </c>
-      <c r="AM3">
-        <v>0.2608695652173914</v>
-      </c>
-      <c r="AN3">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="AO3">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AP3">
-        <v>0.1304347826086957</v>
-      </c>
-      <c r="AQ3">
-        <v>0.08695652173913049</v>
-      </c>
-      <c r="AR3">
-        <v>0.04347826086956519</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0.01304347826086956</v>
-      </c>
-      <c r="X4">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="Y4">
-        <v>0.03913043478260869</v>
-      </c>
-      <c r="Z4">
-        <v>0.05217391304347826</v>
-      </c>
-      <c r="AA4">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="AB4">
-        <v>0.07826086956521738</v>
-      </c>
-      <c r="AC4">
-        <v>0.09130434782608696</v>
-      </c>
-      <c r="AD4">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="AE4">
-        <v>0.1173913043478261</v>
-      </c>
-      <c r="AF4">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="AG4">
-        <v>0.1434782608695652</v>
-      </c>
-      <c r="AH4">
-        <v>0.1565217391304348</v>
-      </c>
-      <c r="AI4">
-        <v>0.1695652173913043</v>
-      </c>
-      <c r="AJ4">
-        <v>0.1826086956521739</v>
-      </c>
-      <c r="AK4">
-        <v>0.1956521739130435</v>
-      </c>
-      <c r="AL4">
-        <v>0.208695652173913</v>
-      </c>
-      <c r="AM4">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AN4">
-        <v>0.2347826086956522</v>
-      </c>
-      <c r="AO4">
-        <v>0.2478260869565217</v>
-      </c>
-      <c r="AP4">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="AQ4">
-        <v>0.2739130434782608</v>
-      </c>
-      <c r="AR4">
-        <v>0.2869565217391304</v>
-      </c>
-      <c r="AS4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0.01304347826086956</v>
-      </c>
-      <c r="X5">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="Y5">
-        <v>0.03913043478260869</v>
-      </c>
-      <c r="Z5">
-        <v>0.05217391304347826</v>
-      </c>
-      <c r="AA5">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="AB5">
-        <v>0.07826086956521738</v>
-      </c>
-      <c r="AC5">
-        <v>0.09130434782608696</v>
-      </c>
-      <c r="AD5">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="AE5">
-        <v>0.1173913043478261</v>
-      </c>
-      <c r="AF5">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="AG5">
-        <v>0.1434782608695652</v>
-      </c>
-      <c r="AH5">
-        <v>0.1565217391304348</v>
-      </c>
-      <c r="AI5">
-        <v>0.1695652173913043</v>
-      </c>
-      <c r="AJ5">
-        <v>0.1826086956521739</v>
-      </c>
-      <c r="AK5">
-        <v>0.1956521739130435</v>
-      </c>
-      <c r="AL5">
-        <v>0.208695652173913</v>
-      </c>
-      <c r="AM5">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AN5">
-        <v>0.2347826086956522</v>
-      </c>
-      <c r="AO5">
-        <v>0.2478260869565217</v>
-      </c>
-      <c r="AP5">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="AQ5">
-        <v>0.2739130434782608</v>
-      </c>
-      <c r="AR5">
-        <v>0.2869565217391304</v>
-      </c>
-      <c r="AS5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0.008695652173913044</v>
-      </c>
-      <c r="X6">
-        <v>0.01739130434782609</v>
-      </c>
-      <c r="Y6">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="Z6">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="AA6">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="AB6">
-        <v>0.05217391304347826</v>
-      </c>
-      <c r="AC6">
-        <v>0.06086956521739131</v>
-      </c>
-      <c r="AD6">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="AE6">
-        <v>0.0782608695652174</v>
-      </c>
-      <c r="AF6">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="AG6">
-        <v>0.09565217391304348</v>
-      </c>
-      <c r="AH6">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="AI6">
-        <v>0.1130434782608696</v>
-      </c>
-      <c r="AJ6">
-        <v>0.1217391304347826</v>
-      </c>
-      <c r="AK6">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="AL6">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AM6">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AN6">
-        <v>0.1565217391304348</v>
-      </c>
-      <c r="AO6">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="AP6">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AQ6">
-        <v>0.1826086956521739</v>
-      </c>
-      <c r="AR6">
-        <v>0.191304347826087</v>
-      </c>
-      <c r="AS6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0.008695652173913044</v>
-      </c>
-      <c r="X7">
-        <v>0.01739130434782609</v>
-      </c>
-      <c r="Y7">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="Z7">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="AA7">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="AB7">
-        <v>0.05217391304347826</v>
-      </c>
-      <c r="AC7">
-        <v>0.06086956521739131</v>
-      </c>
-      <c r="AD7">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="AE7">
-        <v>0.0782608695652174</v>
-      </c>
-      <c r="AF7">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="AG7">
-        <v>0.09565217391304348</v>
-      </c>
-      <c r="AH7">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="AI7">
-        <v>0.1130434782608696</v>
-      </c>
-      <c r="AJ7">
-        <v>0.1217391304347826</v>
-      </c>
-      <c r="AK7">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="AL7">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AM7">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AN7">
-        <v>0.1565217391304348</v>
-      </c>
-      <c r="AO7">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="AP7">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AQ7">
-        <v>0.1826086956521739</v>
-      </c>
-      <c r="AR7">
-        <v>0.191304347826087</v>
-      </c>
-      <c r="AS7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="X8">
-        <v>0.9130434782608696</v>
-      </c>
-      <c r="Y8">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="Z8">
-        <v>0.8260869565217391</v>
-      </c>
-      <c r="AA8">
-        <v>0.7826086956521739</v>
-      </c>
-      <c r="AB8">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AC8">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AD8">
-        <v>0.6521739130434783</v>
-      </c>
-      <c r="AE8">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="AF8">
-        <v>0.5652173913043479</v>
-      </c>
-      <c r="AG8">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AH8">
-        <v>0.4782608695652174</v>
-      </c>
-      <c r="AI8">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="AJ8">
-        <v>0.3913043478260869</v>
-      </c>
-      <c r="AK8">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AL8">
-        <v>0.3043478260869565</v>
-      </c>
-      <c r="AM8">
-        <v>0.2608695652173914</v>
-      </c>
-      <c r="AN8">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="AO8">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AP8">
-        <v>0.1304347826086957</v>
-      </c>
-      <c r="AQ8">
-        <v>0.08695652173913049</v>
-      </c>
-      <c r="AR8">
-        <v>0.04347826086956519</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="X9">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="Y9">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="Z9">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AA9">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AB9">
-        <v>0.2086956521739131</v>
-      </c>
-      <c r="AC9">
-        <v>0.2434782608695653</v>
-      </c>
-      <c r="AD9">
-        <v>0.2782608695652174</v>
-      </c>
-      <c r="AE9">
-        <v>0.3130434782608696</v>
-      </c>
-      <c r="AF9">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AG9">
-        <v>0.3826086956521739</v>
-      </c>
-      <c r="AH9">
-        <v>0.4173913043478261</v>
-      </c>
-      <c r="AI9">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AJ9">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="AK9">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AL9">
-        <v>0.5565217391304348</v>
-      </c>
-      <c r="AM9">
-        <v>0.591304347826087</v>
-      </c>
-      <c r="AN9">
-        <v>0.6260869565217392</v>
-      </c>
-      <c r="AO9">
-        <v>0.6608695652173914</v>
-      </c>
-      <c r="AP9">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AQ9">
-        <v>0.7304347826086957</v>
-      </c>
-      <c r="AR9">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="AS9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0.004347826086956522</v>
-      </c>
-      <c r="X10">
-        <v>0.008695652173913044</v>
-      </c>
-      <c r="Y10">
-        <v>0.01304347826086957</v>
-      </c>
-      <c r="Z10">
-        <v>0.01739130434782609</v>
-      </c>
-      <c r="AA10">
-        <v>0.02173913043478261</v>
-      </c>
-      <c r="AB10">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="AC10">
-        <v>0.03043478260869566</v>
-      </c>
-      <c r="AD10">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="AE10">
-        <v>0.0391304347826087</v>
-      </c>
-      <c r="AF10">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="AG10">
-        <v>0.04782608695652174</v>
-      </c>
-      <c r="AH10">
-        <v>0.05217391304347826</v>
-      </c>
-      <c r="AI10">
-        <v>0.05652173913043478</v>
-      </c>
-      <c r="AJ10">
-        <v>0.06086956521739131</v>
-      </c>
-      <c r="AK10">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="AL10">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="AM10">
-        <v>0.07391304347826087</v>
-      </c>
-      <c r="AN10">
-        <v>0.0782608695652174</v>
-      </c>
-      <c r="AO10">
-        <v>0.08260869565217392</v>
-      </c>
-      <c r="AP10">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="AQ10">
-        <v>0.09130434782608696</v>
-      </c>
-      <c r="AR10">
-        <v>0.09565217391304348</v>
-      </c>
-      <c r="AS10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0.004347826086956522</v>
-      </c>
-      <c r="X11">
-        <v>0.008695652173913044</v>
-      </c>
-      <c r="Y11">
-        <v>0.01304347826086957</v>
-      </c>
-      <c r="Z11">
-        <v>0.01739130434782609</v>
-      </c>
-      <c r="AA11">
-        <v>0.02173913043478261</v>
-      </c>
-      <c r="AB11">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="AC11">
-        <v>0.03043478260869566</v>
-      </c>
-      <c r="AD11">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="AE11">
-        <v>0.0391304347826087</v>
-      </c>
-      <c r="AF11">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="AG11">
-        <v>0.04782608695652174</v>
-      </c>
-      <c r="AH11">
-        <v>0.05217391304347826</v>
-      </c>
-      <c r="AI11">
-        <v>0.05652173913043478</v>
-      </c>
-      <c r="AJ11">
-        <v>0.06086956521739131</v>
-      </c>
-      <c r="AK11">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="AL11">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="AM11">
-        <v>0.07391304347826087</v>
-      </c>
-      <c r="AN11">
-        <v>0.0782608695652174</v>
-      </c>
-      <c r="AO11">
-        <v>0.08260869565217392</v>
-      </c>
-      <c r="AP11">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="AQ11">
-        <v>0.09130434782608696</v>
-      </c>
-      <c r="AR11">
-        <v>0.09565217391304348</v>
-      </c>
-      <c r="AS11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="X12">
-        <v>0.9130434782608696</v>
-      </c>
-      <c r="Y12">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="Z12">
-        <v>0.8260869565217391</v>
-      </c>
-      <c r="AA12">
-        <v>0.7826086956521739</v>
-      </c>
-      <c r="AB12">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AC12">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AD12">
-        <v>0.6521739130434783</v>
-      </c>
-      <c r="AE12">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="AF12">
-        <v>0.5652173913043479</v>
-      </c>
-      <c r="AG12">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AH12">
-        <v>0.4782608695652174</v>
-      </c>
-      <c r="AI12">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="AJ12">
-        <v>0.3913043478260869</v>
-      </c>
-      <c r="AK12">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AL12">
-        <v>0.3043478260869565</v>
-      </c>
-      <c r="AM12">
-        <v>0.2608695652173914</v>
-      </c>
-      <c r="AN12">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="AO12">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AP12">
-        <v>0.1304347826086957</v>
-      </c>
-      <c r="AQ12">
-        <v>0.08695652173913049</v>
-      </c>
-      <c r="AR12">
-        <v>0.04347826086956519</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>0.9739130434782609</v>
-      </c>
-      <c r="X13">
-        <v>0.9478260869565218</v>
-      </c>
-      <c r="Y13">
-        <v>0.9217391304347826</v>
-      </c>
-      <c r="Z13">
-        <v>0.8956521739130435</v>
-      </c>
-      <c r="AA13">
-        <v>0.8695652173913044</v>
-      </c>
-      <c r="AB13">
-        <v>0.8434782608695652</v>
-      </c>
-      <c r="AC13">
-        <v>0.817391304347826</v>
-      </c>
-      <c r="AD13">
-        <v>0.7913043478260869</v>
-      </c>
-      <c r="AE13">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="AF13">
-        <v>0.7391304347826088</v>
-      </c>
-      <c r="AG13">
-        <v>0.7130434782608696</v>
-      </c>
-      <c r="AH13">
-        <v>0.6869565217391305</v>
-      </c>
-      <c r="AI13">
-        <v>0.6608695652173914</v>
-      </c>
-      <c r="AJ13">
-        <v>0.6347826086956522</v>
-      </c>
-      <c r="AK13">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="AL13">
-        <v>0.5826086956521739</v>
-      </c>
-      <c r="AM13">
-        <v>0.5565217391304349</v>
-      </c>
-      <c r="AN13">
-        <v>0.5304347826086957</v>
-      </c>
-      <c r="AO13">
-        <v>0.5043478260869565</v>
-      </c>
-      <c r="AP13">
-        <v>0.4782608695652174</v>
-      </c>
-      <c r="AQ13">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AR13">
-        <v>0.4260869565217391</v>
-      </c>
-      <c r="AS13">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14">
-        <v>22</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0.02</v>
-      </c>
-      <c r="K14">
-        <v>0.02</v>
-      </c>
-      <c r="L14">
-        <v>0.02</v>
-      </c>
-      <c r="M14">
-        <v>0.02</v>
-      </c>
-      <c r="N14">
-        <v>0.02</v>
-      </c>
-      <c r="O14">
-        <v>0.02</v>
-      </c>
-      <c r="P14">
-        <v>0.02</v>
-      </c>
-      <c r="Q14">
-        <v>0.02</v>
-      </c>
-      <c r="R14">
-        <v>0.02</v>
-      </c>
-      <c r="S14">
-        <v>0.02</v>
-      </c>
-      <c r="T14">
-        <v>0.02</v>
-      </c>
-      <c r="U14">
-        <v>0.02</v>
-      </c>
-      <c r="V14">
-        <v>0.02</v>
-      </c>
-      <c r="W14">
-        <v>0.03978260869565217</v>
-      </c>
-      <c r="X14">
-        <v>0.05956521739130435</v>
-      </c>
-      <c r="Y14">
-        <v>0.07934782608695652</v>
-      </c>
-      <c r="Z14">
-        <v>0.09913043478260869</v>
-      </c>
-      <c r="AA14">
-        <v>0.1189130434782609</v>
-      </c>
-      <c r="AB14">
-        <v>0.138695652173913</v>
-      </c>
-      <c r="AC14">
-        <v>0.1584782608695652</v>
-      </c>
-      <c r="AD14">
-        <v>0.1782608695652174</v>
-      </c>
-      <c r="AE14">
-        <v>0.1980434782608696</v>
-      </c>
-      <c r="AF14">
-        <v>0.2178260869565217</v>
-      </c>
-      <c r="AG14">
-        <v>0.2376086956521739</v>
-      </c>
-      <c r="AH14">
-        <v>0.2573913043478261</v>
-      </c>
-      <c r="AI14">
-        <v>0.2771739130434782</v>
-      </c>
-      <c r="AJ14">
-        <v>0.2969565217391305</v>
-      </c>
-      <c r="AK14">
-        <v>0.3167391304347826</v>
-      </c>
-      <c r="AL14">
-        <v>0.3365217391304348</v>
-      </c>
-      <c r="AM14">
-        <v>0.3563043478260869</v>
-      </c>
-      <c r="AN14">
-        <v>0.3760869565217391</v>
-      </c>
-      <c r="AO14">
-        <v>0.3958695652173913</v>
-      </c>
-      <c r="AP14">
-        <v>0.4156521739130434</v>
-      </c>
-      <c r="AQ14">
-        <v>0.4354347826086956</v>
-      </c>
-      <c r="AR14">
-        <v>0.4552173913043478</v>
-      </c>
-      <c r="AS14">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15">
-        <v>22</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0.4</v>
-      </c>
-      <c r="K15">
-        <v>0.4</v>
-      </c>
-      <c r="L15">
-        <v>0.4</v>
-      </c>
-      <c r="M15">
-        <v>0.4</v>
-      </c>
-      <c r="N15">
-        <v>0.4</v>
-      </c>
-      <c r="O15">
-        <v>0.4</v>
-      </c>
-      <c r="P15">
-        <v>0.4</v>
-      </c>
-      <c r="Q15">
-        <v>0.4</v>
-      </c>
-      <c r="R15">
-        <v>0.4</v>
-      </c>
-      <c r="S15">
-        <v>0.4</v>
-      </c>
-      <c r="T15">
-        <v>0.4</v>
-      </c>
-      <c r="U15">
-        <v>0.4</v>
-      </c>
-      <c r="V15">
-        <v>0.4</v>
-      </c>
-      <c r="W15">
-        <v>0.4032608695652174</v>
-      </c>
-      <c r="X15">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="Y15">
-        <v>0.4097826086956521</v>
-      </c>
-      <c r="Z15">
-        <v>0.4130434782608696</v>
-      </c>
-      <c r="AA15">
-        <v>0.4163043478260869</v>
-      </c>
-      <c r="AB15">
-        <v>0.4195652173913044</v>
-      </c>
-      <c r="AC15">
-        <v>0.4228260869565217</v>
-      </c>
-      <c r="AD15">
-        <v>0.4260869565217391</v>
-      </c>
-      <c r="AE15">
-        <v>0.4293478260869565</v>
-      </c>
-      <c r="AF15">
-        <v>0.4326086956521739</v>
-      </c>
-      <c r="AG15">
-        <v>0.4358695652173913</v>
-      </c>
-      <c r="AH15">
-        <v>0.4391304347826087</v>
-      </c>
-      <c r="AI15">
-        <v>0.442391304347826</v>
-      </c>
-      <c r="AJ15">
-        <v>0.4456521739130435</v>
-      </c>
-      <c r="AK15">
-        <v>0.4489130434782609</v>
-      </c>
-      <c r="AL15">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AM15">
-        <v>0.4554347826086956</v>
-      </c>
-      <c r="AN15">
-        <v>0.4586956521739131</v>
-      </c>
-      <c r="AO15">
-        <v>0.4619565217391304</v>
-      </c>
-      <c r="AP15">
-        <v>0.4652173913043478</v>
-      </c>
-      <c r="AQ15">
-        <v>0.4684782608695652</v>
-      </c>
-      <c r="AR15">
-        <v>0.4717391304347826</v>
-      </c>
-      <c r="AS15">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16">
-        <v>22</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0.02</v>
-      </c>
-      <c r="K16">
-        <v>0.02</v>
-      </c>
-      <c r="L16">
-        <v>0.02</v>
-      </c>
-      <c r="M16">
-        <v>0.02</v>
-      </c>
-      <c r="N16">
-        <v>0.02</v>
-      </c>
-      <c r="O16">
-        <v>0.02</v>
-      </c>
-      <c r="P16">
-        <v>0.02</v>
-      </c>
-      <c r="Q16">
-        <v>0.02</v>
-      </c>
-      <c r="R16">
-        <v>0.02</v>
-      </c>
-      <c r="S16">
-        <v>0.02</v>
-      </c>
-      <c r="T16">
-        <v>0.02</v>
-      </c>
-      <c r="U16">
-        <v>0.02</v>
-      </c>
-      <c r="V16">
-        <v>0.02</v>
-      </c>
-      <c r="W16">
-        <v>0.03978260869565217</v>
-      </c>
-      <c r="X16">
-        <v>0.05956521739130435</v>
-      </c>
-      <c r="Y16">
-        <v>0.07934782608695652</v>
-      </c>
-      <c r="Z16">
-        <v>0.09913043478260869</v>
-      </c>
-      <c r="AA16">
-        <v>0.1189130434782609</v>
-      </c>
-      <c r="AB16">
-        <v>0.138695652173913</v>
-      </c>
-      <c r="AC16">
-        <v>0.1584782608695652</v>
-      </c>
-      <c r="AD16">
-        <v>0.1782608695652174</v>
-      </c>
-      <c r="AE16">
-        <v>0.1980434782608696</v>
-      </c>
-      <c r="AF16">
-        <v>0.2178260869565217</v>
-      </c>
-      <c r="AG16">
-        <v>0.2376086956521739</v>
-      </c>
-      <c r="AH16">
-        <v>0.2573913043478261</v>
-      </c>
-      <c r="AI16">
-        <v>0.2771739130434782</v>
-      </c>
-      <c r="AJ16">
-        <v>0.2969565217391305</v>
-      </c>
-      <c r="AK16">
-        <v>0.3167391304347826</v>
-      </c>
-      <c r="AL16">
-        <v>0.3365217391304348</v>
-      </c>
-      <c r="AM16">
-        <v>0.3563043478260869</v>
-      </c>
-      <c r="AN16">
-        <v>0.3760869565217391</v>
-      </c>
-      <c r="AO16">
-        <v>0.3958695652173913</v>
-      </c>
-      <c r="AP16">
-        <v>0.4156521739130434</v>
-      </c>
-      <c r="AQ16">
-        <v>0.4354347826086956</v>
-      </c>
-      <c r="AR16">
-        <v>0.4552173913043478</v>
-      </c>
-      <c r="AS16">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17">
-        <v>22</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0.005851456</v>
-      </c>
-      <c r="K17">
-        <v>0.005851456</v>
-      </c>
-      <c r="L17">
-        <v>0.005851456</v>
-      </c>
-      <c r="M17">
-        <v>0.005851456</v>
-      </c>
-      <c r="N17">
-        <v>0.005851456</v>
-      </c>
-      <c r="O17">
-        <v>0.005851456</v>
-      </c>
-      <c r="P17">
-        <v>0.005851456</v>
-      </c>
-      <c r="Q17">
-        <v>0.005851456</v>
-      </c>
-      <c r="R17">
-        <v>0.005851456</v>
-      </c>
-      <c r="S17">
-        <v>0.005851456</v>
-      </c>
-      <c r="T17">
-        <v>0.005851456</v>
-      </c>
-      <c r="U17">
-        <v>0.005851456</v>
-      </c>
-      <c r="V17">
-        <v>0.005851456</v>
-      </c>
-      <c r="W17">
-        <v>0.02624921878260869</v>
-      </c>
-      <c r="X17">
-        <v>0.04664698156521739</v>
-      </c>
-      <c r="Y17">
-        <v>0.06704474434782608</v>
-      </c>
-      <c r="Z17">
-        <v>0.08744250713043478</v>
-      </c>
-      <c r="AA17">
-        <v>0.1078402699130435</v>
-      </c>
-      <c r="AB17">
-        <v>0.1282380326956522</v>
-      </c>
-      <c r="AC17">
-        <v>0.1486357954782609</v>
-      </c>
-      <c r="AD17">
-        <v>0.1690335582608695</v>
-      </c>
-      <c r="AE17">
-        <v>0.1894313210434783</v>
-      </c>
-      <c r="AF17">
-        <v>0.2098290838260869</v>
-      </c>
-      <c r="AG17">
-        <v>0.2302268466086956</v>
-      </c>
-      <c r="AH17">
-        <v>0.2506246093913043</v>
-      </c>
-      <c r="AI17">
-        <v>0.271022372173913</v>
-      </c>
-      <c r="AJ17">
-        <v>0.2914201349565217</v>
-      </c>
-      <c r="AK17">
-        <v>0.3118178977391304</v>
-      </c>
-      <c r="AL17">
-        <v>0.3322156605217391</v>
-      </c>
-      <c r="AM17">
-        <v>0.3526134233043478</v>
-      </c>
-      <c r="AN17">
-        <v>0.3730111860869565</v>
-      </c>
-      <c r="AO17">
-        <v>0.3934089488695652</v>
-      </c>
-      <c r="AP17">
-        <v>0.4138067116521739</v>
-      </c>
-      <c r="AQ17">
-        <v>0.4342044744347826</v>
-      </c>
-      <c r="AR17">
-        <v>0.4546022372173913</v>
-      </c>
-      <c r="AS17">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18">
-        <v>22</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0.005851456</v>
-      </c>
-      <c r="K18">
-        <v>0.005851456</v>
-      </c>
-      <c r="L18">
-        <v>0.005851456</v>
-      </c>
-      <c r="M18">
-        <v>0.005851456</v>
-      </c>
-      <c r="N18">
-        <v>0.005851456</v>
-      </c>
-      <c r="O18">
-        <v>0.005851456</v>
-      </c>
-      <c r="P18">
-        <v>0.005851456</v>
-      </c>
-      <c r="Q18">
-        <v>0.005851456</v>
-      </c>
-      <c r="R18">
-        <v>0.005851456</v>
-      </c>
-      <c r="S18">
-        <v>0.005851456</v>
-      </c>
-      <c r="T18">
-        <v>0.005851456</v>
-      </c>
-      <c r="U18">
-        <v>0.005851456</v>
-      </c>
-      <c r="V18">
-        <v>0.005851456</v>
-      </c>
-      <c r="W18">
-        <v>0.02624921878260869</v>
-      </c>
-      <c r="X18">
-        <v>0.04664698156521739</v>
-      </c>
-      <c r="Y18">
-        <v>0.06704474434782608</v>
-      </c>
-      <c r="Z18">
-        <v>0.08744250713043478</v>
-      </c>
-      <c r="AA18">
-        <v>0.1078402699130435</v>
-      </c>
-      <c r="AB18">
-        <v>0.1282380326956522</v>
-      </c>
-      <c r="AC18">
-        <v>0.1486357954782609</v>
-      </c>
-      <c r="AD18">
-        <v>0.1690335582608695</v>
-      </c>
-      <c r="AE18">
-        <v>0.1894313210434783</v>
-      </c>
-      <c r="AF18">
-        <v>0.2098290838260869</v>
-      </c>
-      <c r="AG18">
-        <v>0.2302268466086956</v>
-      </c>
-      <c r="AH18">
-        <v>0.2506246093913043</v>
-      </c>
-      <c r="AI18">
-        <v>0.271022372173913</v>
-      </c>
-      <c r="AJ18">
-        <v>0.2914201349565217</v>
-      </c>
-      <c r="AK18">
-        <v>0.3118178977391304</v>
-      </c>
-      <c r="AL18">
-        <v>0.3322156605217391</v>
-      </c>
-      <c r="AM18">
-        <v>0.3526134233043478</v>
-      </c>
-      <c r="AN18">
-        <v>0.3730111860869565</v>
-      </c>
-      <c r="AO18">
-        <v>0.3934089488695652</v>
-      </c>
-      <c r="AP18">
-        <v>0.4138067116521739</v>
-      </c>
-      <c r="AQ18">
-        <v>0.4342044744347826</v>
-      </c>
-      <c r="AR18">
-        <v>0.4546022372173913</v>
-      </c>
-      <c r="AS18">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19">
-        <v>22</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0.005851456</v>
-      </c>
-      <c r="K19">
-        <v>0.005851456</v>
-      </c>
-      <c r="L19">
-        <v>0.005851456</v>
-      </c>
-      <c r="M19">
-        <v>0.005851456</v>
-      </c>
-      <c r="N19">
-        <v>0.005851456</v>
-      </c>
-      <c r="O19">
-        <v>0.005851456</v>
-      </c>
-      <c r="P19">
-        <v>0.005851456</v>
-      </c>
-      <c r="Q19">
-        <v>0.005851456</v>
-      </c>
-      <c r="R19">
-        <v>0.005851456</v>
-      </c>
-      <c r="S19">
-        <v>0.005851456</v>
-      </c>
-      <c r="T19">
-        <v>0.005851456</v>
-      </c>
-      <c r="U19">
-        <v>0.005851456</v>
-      </c>
-      <c r="V19">
-        <v>0.005851456</v>
-      </c>
-      <c r="W19">
-        <v>0.02624921878260869</v>
-      </c>
-      <c r="X19">
-        <v>0.04664698156521739</v>
-      </c>
-      <c r="Y19">
-        <v>0.06704474434782608</v>
-      </c>
-      <c r="Z19">
-        <v>0.08744250713043478</v>
-      </c>
-      <c r="AA19">
-        <v>0.1078402699130435</v>
-      </c>
-      <c r="AB19">
-        <v>0.1282380326956522</v>
-      </c>
-      <c r="AC19">
-        <v>0.1486357954782609</v>
-      </c>
-      <c r="AD19">
-        <v>0.1690335582608695</v>
-      </c>
-      <c r="AE19">
-        <v>0.1894313210434783</v>
-      </c>
-      <c r="AF19">
-        <v>0.2098290838260869</v>
-      </c>
-      <c r="AG19">
-        <v>0.2302268466086956</v>
-      </c>
-      <c r="AH19">
-        <v>0.2506246093913043</v>
-      </c>
-      <c r="AI19">
-        <v>0.271022372173913</v>
-      </c>
-      <c r="AJ19">
-        <v>0.2914201349565217</v>
-      </c>
-      <c r="AK19">
-        <v>0.3118178977391304</v>
-      </c>
-      <c r="AL19">
-        <v>0.3322156605217391</v>
-      </c>
-      <c r="AM19">
-        <v>0.3526134233043478</v>
-      </c>
-      <c r="AN19">
-        <v>0.3730111860869565</v>
-      </c>
-      <c r="AO19">
-        <v>0.3934089488695652</v>
-      </c>
-      <c r="AP19">
-        <v>0.4138067116521739</v>
-      </c>
-      <c r="AQ19">
-        <v>0.4342044744347826</v>
-      </c>
-      <c r="AR19">
-        <v>0.4546022372173913</v>
-      </c>
-      <c r="AS19">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20">
-        <v>24</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0.041455807</v>
-      </c>
-      <c r="K20">
-        <v>0.041455807</v>
-      </c>
-      <c r="L20">
-        <v>0.041455807</v>
-      </c>
-      <c r="M20">
-        <v>0.041455807</v>
-      </c>
-      <c r="N20">
-        <v>0.041455807</v>
-      </c>
-      <c r="O20">
-        <v>0.041455807</v>
-      </c>
-      <c r="P20">
-        <v>0.041455807</v>
-      </c>
-      <c r="Q20">
-        <v>0.041455807</v>
-      </c>
-      <c r="R20">
-        <v>0.041455807</v>
-      </c>
-      <c r="S20">
-        <v>0.041455807</v>
-      </c>
-      <c r="T20">
-        <v>0.041455807</v>
-      </c>
-      <c r="U20">
-        <v>0.041455807</v>
-      </c>
-      <c r="V20">
-        <v>0.041455807</v>
-      </c>
-      <c r="W20">
-        <v>0.08313164147826087</v>
-      </c>
-      <c r="X20">
-        <v>0.1248074759565217</v>
-      </c>
-      <c r="Y20">
-        <v>0.1664833104347826</v>
-      </c>
-      <c r="Z20">
-        <v>0.2081591449130435</v>
-      </c>
-      <c r="AA20">
-        <v>0.2498349793913043</v>
-      </c>
-      <c r="AB20">
-        <v>0.2915108138695652</v>
-      </c>
-      <c r="AC20">
-        <v>0.3331866483478261</v>
-      </c>
-      <c r="AD20">
-        <v>0.3748624828260869</v>
-      </c>
-      <c r="AE20">
-        <v>0.4165383173043479</v>
-      </c>
-      <c r="AF20">
-        <v>0.4582141517826087</v>
-      </c>
-      <c r="AG20">
-        <v>0.4998899862608696</v>
-      </c>
-      <c r="AH20">
-        <v>0.5415658207391304</v>
-      </c>
-      <c r="AI20">
-        <v>0.5832416552173912</v>
-      </c>
-      <c r="AJ20">
-        <v>0.6249174896956522</v>
-      </c>
-      <c r="AK20">
-        <v>0.666593324173913</v>
-      </c>
-      <c r="AL20">
-        <v>0.7082691586521739</v>
-      </c>
-      <c r="AM20">
-        <v>0.7499449931304347</v>
-      </c>
-      <c r="AN20">
-        <v>0.7916208276086957</v>
-      </c>
-      <c r="AO20">
-        <v>0.8332966620869565</v>
-      </c>
-      <c r="AP20">
-        <v>0.8749724965652174</v>
-      </c>
-      <c r="AQ20">
-        <v>0.9166483310434782</v>
-      </c>
-      <c r="AR20">
-        <v>0.9583241655217392</v>
-      </c>
-      <c r="AS20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21">
-        <v>24</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="K21">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="L21">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M21">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N21">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O21">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P21">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Q21">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R21">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S21">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T21">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="U21">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V21">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W21">
-        <v>0.1039130434782609</v>
-      </c>
-      <c r="X21">
-        <v>0.1378260869565217</v>
-      </c>
-      <c r="Y21">
-        <v>0.1717391304347826</v>
-      </c>
-      <c r="Z21">
-        <v>0.2056521739130435</v>
-      </c>
-      <c r="AA21">
-        <v>0.2395652173913043</v>
-      </c>
-      <c r="AB21">
-        <v>0.2734782608695652</v>
-      </c>
-      <c r="AC21">
-        <v>0.3073913043478261</v>
-      </c>
-      <c r="AD21">
-        <v>0.3413043478260869</v>
-      </c>
-      <c r="AE21">
-        <v>0.3752173913043478</v>
-      </c>
-      <c r="AF21">
-        <v>0.4091304347826087</v>
-      </c>
-      <c r="AG21">
-        <v>0.4430434782608695</v>
-      </c>
-      <c r="AH21">
-        <v>0.4769565217391304</v>
-      </c>
-      <c r="AI21">
-        <v>0.5108695652173912</v>
-      </c>
-      <c r="AJ21">
-        <v>0.5447826086956522</v>
-      </c>
-      <c r="AK21">
-        <v>0.5786956521739131</v>
-      </c>
-      <c r="AL21">
-        <v>0.6126086956521738</v>
-      </c>
-      <c r="AM21">
-        <v>0.6465217391304348</v>
-      </c>
-      <c r="AN21">
-        <v>0.6804347826086957</v>
-      </c>
-      <c r="AO21">
-        <v>0.7143478260869565</v>
-      </c>
-      <c r="AP21">
-        <v>0.7482608695652173</v>
-      </c>
-      <c r="AQ21">
-        <v>0.7821739130434783</v>
-      </c>
-      <c r="AR21">
-        <v>0.8160869565217391</v>
-      </c>
-      <c r="AS21">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22">
-        <v>24</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0.5</v>
-      </c>
-      <c r="K22">
-        <v>0.5</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.5</v>
-      </c>
-      <c r="N22">
-        <v>0.5</v>
-      </c>
-      <c r="O22">
-        <v>0.5</v>
-      </c>
-      <c r="P22">
-        <v>0.5</v>
-      </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>0.5</v>
-      </c>
-      <c r="S22">
-        <v>0.5</v>
-      </c>
-      <c r="T22">
-        <v>0.5</v>
-      </c>
-      <c r="U22">
-        <v>0.5</v>
-      </c>
-      <c r="V22">
-        <v>0.5</v>
-      </c>
-      <c r="W22">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="X22">
-        <v>0.5434782608695652</v>
-      </c>
-      <c r="Y22">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="Z22">
-        <v>0.5869565217391304</v>
-      </c>
-      <c r="AA22">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="AB22">
-        <v>0.6304347826086956</v>
-      </c>
-      <c r="AC22">
-        <v>0.6521739130434783</v>
-      </c>
-      <c r="AD22">
-        <v>0.6739130434782609</v>
-      </c>
-      <c r="AE22">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AF22">
-        <v>0.7173913043478262</v>
-      </c>
-      <c r="AG22">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AH22">
-        <v>0.7608695652173914</v>
-      </c>
-      <c r="AI22">
-        <v>0.7826086956521738</v>
-      </c>
-      <c r="AJ22">
-        <v>0.8043478260869565</v>
-      </c>
-      <c r="AK22">
-        <v>0.8260869565217391</v>
-      </c>
-      <c r="AL22">
-        <v>0.8478260869565217</v>
-      </c>
-      <c r="AM22">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="AN22">
-        <v>0.8913043478260869</v>
-      </c>
-      <c r="AO22">
-        <v>0.9130434782608696</v>
-      </c>
-      <c r="AP22">
-        <v>0.9347826086956521</v>
-      </c>
-      <c r="AQ22">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="AR22">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="AS22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23">
-        <v>24</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0.041455807</v>
-      </c>
-      <c r="K23">
-        <v>0.041455807</v>
-      </c>
-      <c r="L23">
-        <v>0.041455807</v>
-      </c>
-      <c r="M23">
-        <v>0.041455807</v>
-      </c>
-      <c r="N23">
-        <v>0.041455807</v>
-      </c>
-      <c r="O23">
-        <v>0.041455807</v>
-      </c>
-      <c r="P23">
-        <v>0.041455807</v>
-      </c>
-      <c r="Q23">
-        <v>0.041455807</v>
-      </c>
-      <c r="R23">
-        <v>0.041455807</v>
-      </c>
-      <c r="S23">
-        <v>0.041455807</v>
-      </c>
-      <c r="T23">
-        <v>0.041455807</v>
-      </c>
-      <c r="U23">
-        <v>0.041455807</v>
-      </c>
-      <c r="V23">
-        <v>0.041455807</v>
-      </c>
-      <c r="W23">
-        <v>0.08313164147826087</v>
-      </c>
-      <c r="X23">
-        <v>0.1248074759565217</v>
-      </c>
-      <c r="Y23">
-        <v>0.1664833104347826</v>
-      </c>
-      <c r="Z23">
-        <v>0.2081591449130435</v>
-      </c>
-      <c r="AA23">
-        <v>0.2498349793913043</v>
-      </c>
-      <c r="AB23">
-        <v>0.2915108138695652</v>
-      </c>
-      <c r="AC23">
-        <v>0.3331866483478261</v>
-      </c>
-      <c r="AD23">
-        <v>0.3748624828260869</v>
-      </c>
-      <c r="AE23">
-        <v>0.4165383173043479</v>
-      </c>
-      <c r="AF23">
-        <v>0.4582141517826087</v>
-      </c>
-      <c r="AG23">
-        <v>0.4998899862608696</v>
-      </c>
-      <c r="AH23">
-        <v>0.5415658207391304</v>
-      </c>
-      <c r="AI23">
-        <v>0.5832416552173912</v>
-      </c>
-      <c r="AJ23">
-        <v>0.6249174896956522</v>
-      </c>
-      <c r="AK23">
-        <v>0.666593324173913</v>
-      </c>
-      <c r="AL23">
-        <v>0.7082691586521739</v>
-      </c>
-      <c r="AM23">
-        <v>0.7499449931304347</v>
-      </c>
-      <c r="AN23">
-        <v>0.7916208276086957</v>
-      </c>
-      <c r="AO23">
-        <v>0.8332966620869565</v>
-      </c>
-      <c r="AP23">
-        <v>0.8749724965652174</v>
-      </c>
-      <c r="AQ23">
-        <v>0.9166483310434782</v>
-      </c>
-      <c r="AR23">
-        <v>0.9583241655217392</v>
-      </c>
-      <c r="AS23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24">
-        <v>21</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0.03721691956521739</v>
-      </c>
-      <c r="X24">
-        <v>0.07443383913043478</v>
-      </c>
-      <c r="Y24">
-        <v>0.1116507586956522</v>
-      </c>
-      <c r="Z24">
-        <v>0.1488676782608696</v>
-      </c>
-      <c r="AA24">
-        <v>0.1860845978260869</v>
-      </c>
-      <c r="AB24">
-        <v>0.2233015173913043</v>
-      </c>
-      <c r="AC24">
-        <v>0.2605184369565218</v>
-      </c>
-      <c r="AD24">
-        <v>0.2977353565217391</v>
-      </c>
-      <c r="AE24">
-        <v>0.3349522760869565</v>
-      </c>
-      <c r="AF24">
-        <v>0.3721691956521739</v>
-      </c>
-      <c r="AG24">
-        <v>0.4093861152173913</v>
-      </c>
-      <c r="AH24">
-        <v>0.4466030347826087</v>
-      </c>
-      <c r="AI24">
-        <v>0.483819954347826</v>
-      </c>
-      <c r="AJ24">
-        <v>0.5210368739130435</v>
-      </c>
-      <c r="AK24">
-        <v>0.5582537934782609</v>
-      </c>
-      <c r="AL24">
-        <v>0.5954707130434782</v>
-      </c>
-      <c r="AM24">
-        <v>0.6326876326086955</v>
-      </c>
-      <c r="AN24">
-        <v>0.6699045521739131</v>
-      </c>
-      <c r="AO24">
-        <v>0.7071214717391304</v>
-      </c>
-      <c r="AP24">
-        <v>0.7443383913043478</v>
-      </c>
-      <c r="AQ24">
-        <v>0.7815553108695652</v>
-      </c>
-      <c r="AR24">
-        <v>0.8187722304347826</v>
-      </c>
-      <c r="AS24">
-        <v>0.85598915</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25">
-        <v>21</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0.85598915</v>
-      </c>
-      <c r="K25">
-        <v>0.85598915</v>
-      </c>
-      <c r="L25">
-        <v>0.85598915</v>
-      </c>
-      <c r="M25">
-        <v>0.85598915</v>
-      </c>
-      <c r="N25">
-        <v>0.85598915</v>
-      </c>
-      <c r="O25">
-        <v>0.85598915</v>
-      </c>
-      <c r="P25">
-        <v>0.85598915</v>
-      </c>
-      <c r="Q25">
-        <v>0.85598915</v>
-      </c>
-      <c r="R25">
-        <v>0.85598915</v>
-      </c>
-      <c r="S25">
-        <v>0.85598915</v>
-      </c>
-      <c r="T25">
-        <v>0.85598915</v>
-      </c>
-      <c r="U25">
-        <v>0.85598915</v>
-      </c>
-      <c r="V25">
-        <v>0.85598915</v>
-      </c>
-      <c r="W25">
-        <v>0.8187722304347826</v>
-      </c>
-      <c r="X25">
-        <v>0.7815553108695652</v>
-      </c>
-      <c r="Y25">
-        <v>0.7443383913043478</v>
-      </c>
-      <c r="Z25">
-        <v>0.7071214717391304</v>
-      </c>
-      <c r="AA25">
-        <v>0.6699045521739131</v>
-      </c>
-      <c r="AB25">
-        <v>0.6326876326086955</v>
-      </c>
-      <c r="AC25">
-        <v>0.5954707130434782</v>
-      </c>
-      <c r="AD25">
-        <v>0.5582537934782609</v>
-      </c>
-      <c r="AE25">
-        <v>0.5210368739130435</v>
-      </c>
-      <c r="AF25">
-        <v>0.4838199543478262</v>
-      </c>
-      <c r="AG25">
-        <v>0.4466030347826087</v>
-      </c>
-      <c r="AH25">
-        <v>0.4093861152173913</v>
-      </c>
-      <c r="AI25">
-        <v>0.3721691956521739</v>
-      </c>
-      <c r="AJ25">
-        <v>0.3349522760869565</v>
-      </c>
-      <c r="AK25">
-        <v>0.2977353565217391</v>
-      </c>
-      <c r="AL25">
-        <v>0.2605184369565218</v>
-      </c>
-      <c r="AM25">
-        <v>0.2233015173913044</v>
-      </c>
-      <c r="AN25">
-        <v>0.1860845978260869</v>
-      </c>
-      <c r="AO25">
-        <v>0.1488676782608696</v>
-      </c>
-      <c r="AP25">
-        <v>0.1116507586956522</v>
-      </c>
-      <c r="AQ25">
-        <v>0.07443383913043483</v>
-      </c>
-      <c r="AR25">
-        <v>0.03721691956521737</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26">
-        <v>23</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0.06</v>
-      </c>
-      <c r="K26">
-        <v>0.06</v>
-      </c>
-      <c r="L26">
-        <v>0.06</v>
-      </c>
-      <c r="M26">
-        <v>0.06</v>
-      </c>
-      <c r="N26">
-        <v>0.06</v>
-      </c>
-      <c r="O26">
-        <v>0.06</v>
-      </c>
-      <c r="P26">
-        <v>0.06</v>
-      </c>
-      <c r="Q26">
-        <v>0.06</v>
-      </c>
-      <c r="R26">
-        <v>0.06</v>
-      </c>
-      <c r="S26">
-        <v>0.06</v>
-      </c>
-      <c r="T26">
-        <v>0.06</v>
-      </c>
-      <c r="U26">
-        <v>0.06</v>
-      </c>
-      <c r="V26">
-        <v>0.06</v>
-      </c>
-      <c r="W26">
-        <v>0.09869565217391305</v>
-      </c>
-      <c r="X26">
-        <v>0.1373913043478261</v>
-      </c>
-      <c r="Y26">
-        <v>0.1760869565217391</v>
-      </c>
-      <c r="Z26">
-        <v>0.2147826086956522</v>
-      </c>
-      <c r="AA26">
-        <v>0.2534782608695652</v>
-      </c>
-      <c r="AB26">
-        <v>0.2921739130434782</v>
-      </c>
-      <c r="AC26">
-        <v>0.3308695652173913</v>
-      </c>
-      <c r="AD26">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AE26">
-        <v>0.4082608695652174</v>
-      </c>
-      <c r="AF26">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AG26">
-        <v>0.4856521739130434</v>
-      </c>
-      <c r="AH26">
-        <v>0.5243478260869565</v>
-      </c>
-      <c r="AI26">
-        <v>0.5630434782608694</v>
-      </c>
-      <c r="AJ26">
-        <v>0.6017391304347826</v>
-      </c>
-      <c r="AK26">
-        <v>0.6404347826086956</v>
-      </c>
-      <c r="AL26">
-        <v>0.6791304347826087</v>
-      </c>
-      <c r="AM26">
-        <v>0.7178260869565217</v>
-      </c>
-      <c r="AN26">
-        <v>0.7565217391304349</v>
-      </c>
-      <c r="AO26">
-        <v>0.7952173913043479</v>
-      </c>
-      <c r="AP26">
-        <v>0.8339130434782608</v>
-      </c>
-      <c r="AQ26">
-        <v>0.8726086956521738</v>
-      </c>
-      <c r="AR26">
-        <v>0.9113043478260869</v>
-      </c>
-      <c r="AS26">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27">
-        <v>23</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0.06</v>
-      </c>
-      <c r="K27">
-        <v>0.06</v>
-      </c>
-      <c r="L27">
-        <v>0.06</v>
-      </c>
-      <c r="M27">
-        <v>0.06</v>
-      </c>
-      <c r="N27">
-        <v>0.06</v>
-      </c>
-      <c r="O27">
-        <v>0.06</v>
-      </c>
-      <c r="P27">
-        <v>0.06</v>
-      </c>
-      <c r="Q27">
-        <v>0.06</v>
-      </c>
-      <c r="R27">
-        <v>0.06</v>
-      </c>
-      <c r="S27">
-        <v>0.06</v>
-      </c>
-      <c r="T27">
-        <v>0.06</v>
-      </c>
-      <c r="U27">
-        <v>0.06</v>
-      </c>
-      <c r="V27">
-        <v>0.06</v>
-      </c>
-      <c r="W27">
-        <v>0.09869565217391305</v>
-      </c>
-      <c r="X27">
-        <v>0.1373913043478261</v>
-      </c>
-      <c r="Y27">
-        <v>0.1760869565217391</v>
-      </c>
-      <c r="Z27">
-        <v>0.2147826086956522</v>
-      </c>
-      <c r="AA27">
-        <v>0.2534782608695652</v>
-      </c>
-      <c r="AB27">
-        <v>0.2921739130434782</v>
-      </c>
-      <c r="AC27">
-        <v>0.3308695652173913</v>
-      </c>
-      <c r="AD27">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AE27">
-        <v>0.4082608695652174</v>
-      </c>
-      <c r="AF27">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AG27">
-        <v>0.4856521739130434</v>
-      </c>
-      <c r="AH27">
-        <v>0.5243478260869565</v>
-      </c>
-      <c r="AI27">
-        <v>0.5630434782608694</v>
-      </c>
-      <c r="AJ27">
-        <v>0.6017391304347826</v>
-      </c>
-      <c r="AK27">
-        <v>0.6404347826086956</v>
-      </c>
-      <c r="AL27">
-        <v>0.6791304347826087</v>
-      </c>
-      <c r="AM27">
-        <v>0.7178260869565217</v>
-      </c>
-      <c r="AN27">
-        <v>0.7565217391304349</v>
-      </c>
-      <c r="AO27">
-        <v>0.7952173913043479</v>
-      </c>
-      <c r="AP27">
-        <v>0.8339130434782608</v>
-      </c>
-      <c r="AQ27">
-        <v>0.8726086956521738</v>
-      </c>
-      <c r="AR27">
-        <v>0.9113043478260869</v>
-      </c>
-      <c r="AS27">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28">
-        <v>23</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0.06</v>
-      </c>
-      <c r="K28">
-        <v>0.06</v>
-      </c>
-      <c r="L28">
-        <v>0.06</v>
-      </c>
-      <c r="M28">
-        <v>0.06</v>
-      </c>
-      <c r="N28">
-        <v>0.06</v>
-      </c>
-      <c r="O28">
-        <v>0.06</v>
-      </c>
-      <c r="P28">
-        <v>0.06</v>
-      </c>
-      <c r="Q28">
-        <v>0.06</v>
-      </c>
-      <c r="R28">
-        <v>0.06</v>
-      </c>
-      <c r="S28">
-        <v>0.06</v>
-      </c>
-      <c r="T28">
-        <v>0.06</v>
-      </c>
-      <c r="U28">
-        <v>0.06</v>
-      </c>
-      <c r="V28">
-        <v>0.06</v>
-      </c>
-      <c r="W28">
-        <v>0.09869565217391305</v>
-      </c>
-      <c r="X28">
-        <v>0.1373913043478261</v>
-      </c>
-      <c r="Y28">
-        <v>0.1760869565217391</v>
-      </c>
-      <c r="Z28">
-        <v>0.2147826086956522</v>
-      </c>
-      <c r="AA28">
-        <v>0.2534782608695652</v>
-      </c>
-      <c r="AB28">
-        <v>0.2921739130434782</v>
-      </c>
-      <c r="AC28">
-        <v>0.3308695652173913</v>
-      </c>
-      <c r="AD28">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AE28">
-        <v>0.4082608695652174</v>
-      </c>
-      <c r="AF28">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AG28">
-        <v>0.4856521739130434</v>
-      </c>
-      <c r="AH28">
-        <v>0.5243478260869565</v>
-      </c>
-      <c r="AI28">
-        <v>0.5630434782608694</v>
-      </c>
-      <c r="AJ28">
-        <v>0.6017391304347826</v>
-      </c>
-      <c r="AK28">
-        <v>0.6404347826086956</v>
-      </c>
-      <c r="AL28">
-        <v>0.6791304347826087</v>
-      </c>
-      <c r="AM28">
-        <v>0.7178260869565217</v>
-      </c>
-      <c r="AN28">
-        <v>0.7565217391304349</v>
-      </c>
-      <c r="AO28">
-        <v>0.7952173913043479</v>
-      </c>
-      <c r="AP28">
-        <v>0.8339130434782608</v>
-      </c>
-      <c r="AQ28">
-        <v>0.8726086956521738</v>
-      </c>
-      <c r="AR28">
-        <v>0.9113043478260869</v>
-      </c>
-      <c r="AS28">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29">
-        <v>23</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0.06</v>
-      </c>
-      <c r="K29">
-        <v>0.06</v>
-      </c>
-      <c r="L29">
-        <v>0.06</v>
-      </c>
-      <c r="M29">
-        <v>0.06</v>
-      </c>
-      <c r="N29">
-        <v>0.06</v>
-      </c>
-      <c r="O29">
-        <v>0.06</v>
-      </c>
-      <c r="P29">
-        <v>0.06</v>
-      </c>
-      <c r="Q29">
-        <v>0.06</v>
-      </c>
-      <c r="R29">
-        <v>0.06</v>
-      </c>
-      <c r="S29">
-        <v>0.06</v>
-      </c>
-      <c r="T29">
-        <v>0.06</v>
-      </c>
-      <c r="U29">
-        <v>0.06</v>
-      </c>
-      <c r="V29">
-        <v>0.06</v>
-      </c>
-      <c r="W29">
-        <v>0.09869565217391305</v>
-      </c>
-      <c r="X29">
-        <v>0.1373913043478261</v>
-      </c>
-      <c r="Y29">
-        <v>0.1760869565217391</v>
-      </c>
-      <c r="Z29">
-        <v>0.2147826086956522</v>
-      </c>
-      <c r="AA29">
-        <v>0.2534782608695652</v>
-      </c>
-      <c r="AB29">
-        <v>0.2921739130434782</v>
-      </c>
-      <c r="AC29">
-        <v>0.3308695652173913</v>
-      </c>
-      <c r="AD29">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AE29">
-        <v>0.4082608695652174</v>
-      </c>
-      <c r="AF29">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AG29">
-        <v>0.4856521739130434</v>
-      </c>
-      <c r="AH29">
-        <v>0.5243478260869565</v>
-      </c>
-      <c r="AI29">
-        <v>0.5630434782608694</v>
-      </c>
-      <c r="AJ29">
-        <v>0.6017391304347826</v>
-      </c>
-      <c r="AK29">
-        <v>0.6404347826086956</v>
-      </c>
-      <c r="AL29">
-        <v>0.6791304347826087</v>
-      </c>
-      <c r="AM29">
-        <v>0.7178260869565217</v>
-      </c>
-      <c r="AN29">
-        <v>0.7565217391304349</v>
-      </c>
-      <c r="AO29">
-        <v>0.7952173913043479</v>
-      </c>
-      <c r="AP29">
-        <v>0.8339130434782608</v>
-      </c>
-      <c r="AQ29">
-        <v>0.8726086956521738</v>
-      </c>
-      <c r="AR29">
-        <v>0.9113043478260869</v>
-      </c>
-      <c r="AS29">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30">
-        <v>23</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0.06</v>
-      </c>
-      <c r="K30">
-        <v>0.06</v>
-      </c>
-      <c r="L30">
-        <v>0.06</v>
-      </c>
-      <c r="M30">
-        <v>0.06</v>
-      </c>
-      <c r="N30">
-        <v>0.06</v>
-      </c>
-      <c r="O30">
-        <v>0.06</v>
-      </c>
-      <c r="P30">
-        <v>0.06</v>
-      </c>
-      <c r="Q30">
-        <v>0.06</v>
-      </c>
-      <c r="R30">
-        <v>0.06</v>
-      </c>
-      <c r="S30">
-        <v>0.06</v>
-      </c>
-      <c r="T30">
-        <v>0.06</v>
-      </c>
-      <c r="U30">
-        <v>0.06</v>
-      </c>
-      <c r="V30">
-        <v>0.06</v>
-      </c>
-      <c r="W30">
-        <v>0.09869565217391305</v>
-      </c>
-      <c r="X30">
-        <v>0.1373913043478261</v>
-      </c>
-      <c r="Y30">
-        <v>0.1760869565217391</v>
-      </c>
-      <c r="Z30">
-        <v>0.2147826086956522</v>
-      </c>
-      <c r="AA30">
-        <v>0.2534782608695652</v>
-      </c>
-      <c r="AB30">
-        <v>0.2921739130434782</v>
-      </c>
-      <c r="AC30">
-        <v>0.3308695652173913</v>
-      </c>
-      <c r="AD30">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AE30">
-        <v>0.4082608695652174</v>
-      </c>
-      <c r="AF30">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AG30">
-        <v>0.4856521739130434</v>
-      </c>
-      <c r="AH30">
-        <v>0.5243478260869565</v>
-      </c>
-      <c r="AI30">
-        <v>0.5630434782608694</v>
-      </c>
-      <c r="AJ30">
-        <v>0.6017391304347826</v>
-      </c>
-      <c r="AK30">
-        <v>0.6404347826086956</v>
-      </c>
-      <c r="AL30">
-        <v>0.6791304347826087</v>
-      </c>
-      <c r="AM30">
-        <v>0.7178260869565217</v>
-      </c>
-      <c r="AN30">
-        <v>0.7565217391304349</v>
-      </c>
-      <c r="AO30">
-        <v>0.7952173913043479</v>
-      </c>
-      <c r="AP30">
-        <v>0.8339130434782608</v>
-      </c>
-      <c r="AQ30">
-        <v>0.8726086956521738</v>
-      </c>
-      <c r="AR30">
-        <v>0.9113043478260869</v>
-      </c>
-      <c r="AS30">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31">
-        <v>23</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0.06</v>
-      </c>
-      <c r="K31">
-        <v>0.06</v>
-      </c>
-      <c r="L31">
-        <v>0.06</v>
-      </c>
-      <c r="M31">
-        <v>0.06</v>
-      </c>
-      <c r="N31">
-        <v>0.06</v>
-      </c>
-      <c r="O31">
-        <v>0.06</v>
-      </c>
-      <c r="P31">
-        <v>0.06</v>
-      </c>
-      <c r="Q31">
-        <v>0.06</v>
-      </c>
-      <c r="R31">
-        <v>0.06</v>
-      </c>
-      <c r="S31">
-        <v>0.06</v>
-      </c>
-      <c r="T31">
-        <v>0.06</v>
-      </c>
-      <c r="U31">
-        <v>0.06</v>
-      </c>
-      <c r="V31">
-        <v>0.06</v>
-      </c>
-      <c r="W31">
-        <v>0.09869565217391305</v>
-      </c>
-      <c r="X31">
-        <v>0.1373913043478261</v>
-      </c>
-      <c r="Y31">
-        <v>0.1760869565217391</v>
-      </c>
-      <c r="Z31">
-        <v>0.2147826086956522</v>
-      </c>
-      <c r="AA31">
-        <v>0.2534782608695652</v>
-      </c>
-      <c r="AB31">
-        <v>0.2921739130434782</v>
-      </c>
-      <c r="AC31">
-        <v>0.3308695652173913</v>
-      </c>
-      <c r="AD31">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AE31">
-        <v>0.4082608695652174</v>
-      </c>
-      <c r="AF31">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AG31">
-        <v>0.4856521739130434</v>
-      </c>
-      <c r="AH31">
-        <v>0.5243478260869565</v>
-      </c>
-      <c r="AI31">
-        <v>0.5630434782608694</v>
-      </c>
-      <c r="AJ31">
-        <v>0.6017391304347826</v>
-      </c>
-      <c r="AK31">
-        <v>0.6404347826086956</v>
-      </c>
-      <c r="AL31">
-        <v>0.6791304347826087</v>
-      </c>
-      <c r="AM31">
-        <v>0.7178260869565217</v>
-      </c>
-      <c r="AN31">
-        <v>0.7565217391304349</v>
-      </c>
-      <c r="AO31">
-        <v>0.7952173913043479</v>
-      </c>
-      <c r="AP31">
-        <v>0.8339130434782608</v>
-      </c>
-      <c r="AQ31">
-        <v>0.8726086956521738</v>
-      </c>
-      <c r="AR31">
-        <v>0.9113043478260869</v>
-      </c>
-      <c r="AS31">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32">
-        <v>23</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0.06</v>
-      </c>
-      <c r="K32">
-        <v>0.06</v>
-      </c>
-      <c r="L32">
-        <v>0.06</v>
-      </c>
-      <c r="M32">
-        <v>0.06</v>
-      </c>
-      <c r="N32">
-        <v>0.06</v>
-      </c>
-      <c r="O32">
-        <v>0.06</v>
-      </c>
-      <c r="P32">
-        <v>0.06</v>
-      </c>
-      <c r="Q32">
-        <v>0.06</v>
-      </c>
-      <c r="R32">
-        <v>0.06</v>
-      </c>
-      <c r="S32">
-        <v>0.06</v>
-      </c>
-      <c r="T32">
-        <v>0.06</v>
-      </c>
-      <c r="U32">
-        <v>0.06</v>
-      </c>
-      <c r="V32">
-        <v>0.06</v>
-      </c>
-      <c r="W32">
-        <v>0.09869565217391305</v>
-      </c>
-      <c r="X32">
-        <v>0.1373913043478261</v>
-      </c>
-      <c r="Y32">
-        <v>0.1760869565217391</v>
-      </c>
-      <c r="Z32">
-        <v>0.2147826086956522</v>
-      </c>
-      <c r="AA32">
-        <v>0.2534782608695652</v>
-      </c>
-      <c r="AB32">
-        <v>0.2921739130434782</v>
-      </c>
-      <c r="AC32">
-        <v>0.3308695652173913</v>
-      </c>
-      <c r="AD32">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AE32">
-        <v>0.4082608695652174</v>
-      </c>
-      <c r="AF32">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AG32">
-        <v>0.4856521739130434</v>
-      </c>
-      <c r="AH32">
-        <v>0.5243478260869565</v>
-      </c>
-      <c r="AI32">
-        <v>0.5630434782608694</v>
-      </c>
-      <c r="AJ32">
-        <v>0.6017391304347826</v>
-      </c>
-      <c r="AK32">
-        <v>0.6404347826086956</v>
-      </c>
-      <c r="AL32">
-        <v>0.6791304347826087</v>
-      </c>
-      <c r="AM32">
-        <v>0.7178260869565217</v>
-      </c>
-      <c r="AN32">
-        <v>0.7565217391304349</v>
-      </c>
-      <c r="AO32">
-        <v>0.7952173913043479</v>
-      </c>
-      <c r="AP32">
-        <v>0.8339130434782608</v>
-      </c>
-      <c r="AQ32">
-        <v>0.8726086956521738</v>
-      </c>
-      <c r="AR32">
-        <v>0.9113043478260869</v>
-      </c>
-      <c r="AS32">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>157</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0.95</v>
-      </c>
-      <c r="K33">
-        <v>0.95</v>
-      </c>
-      <c r="L33">
-        <v>0.95</v>
-      </c>
-      <c r="M33">
-        <v>0.95</v>
-      </c>
-      <c r="N33">
-        <v>0.95</v>
-      </c>
-      <c r="O33">
-        <v>0.95</v>
-      </c>
-      <c r="P33">
-        <v>0.95</v>
-      </c>
-      <c r="Q33">
-        <v>0.95</v>
-      </c>
-      <c r="R33">
-        <v>0.95</v>
-      </c>
-      <c r="S33">
-        <v>0.95</v>
-      </c>
-      <c r="T33">
-        <v>0.95</v>
-      </c>
-      <c r="U33">
-        <v>0.95</v>
-      </c>
-      <c r="V33">
-        <v>0.95</v>
-      </c>
-      <c r="W33">
-        <v>0.95</v>
-      </c>
-      <c r="X33">
-        <v>0.95</v>
-      </c>
-      <c r="Y33">
-        <v>0.9499999999999998</v>
-      </c>
-      <c r="Z33">
-        <v>0.95</v>
-      </c>
-      <c r="AA33">
-        <v>0.95</v>
-      </c>
-      <c r="AB33">
-        <v>0.95</v>
-      </c>
-      <c r="AC33">
-        <v>0.95</v>
-      </c>
-      <c r="AD33">
-        <v>0.95</v>
-      </c>
-      <c r="AE33">
-        <v>0.95</v>
-      </c>
-      <c r="AF33">
-        <v>0.95</v>
-      </c>
-      <c r="AG33">
-        <v>0.95</v>
-      </c>
-      <c r="AH33">
-        <v>0.95</v>
-      </c>
-      <c r="AI33">
-        <v>0.95</v>
-      </c>
-      <c r="AJ33">
-        <v>0.95</v>
-      </c>
-      <c r="AK33">
-        <v>0.95</v>
-      </c>
-      <c r="AL33">
-        <v>0.95</v>
-      </c>
-      <c r="AM33">
-        <v>0.95</v>
-      </c>
-      <c r="AN33">
-        <v>0.95</v>
-      </c>
-      <c r="AO33">
-        <v>0.95</v>
-      </c>
-      <c r="AP33">
-        <v>0.95</v>
-      </c>
-      <c r="AQ33">
-        <v>0.95</v>
-      </c>
-      <c r="AR33">
-        <v>0.95</v>
-      </c>
-      <c r="AS33">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>190</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>0.5</v>
-      </c>
-      <c r="K34">
-        <v>0.5</v>
-      </c>
-      <c r="L34">
-        <v>0.5</v>
-      </c>
-      <c r="M34">
-        <v>0.5</v>
-      </c>
-      <c r="N34">
-        <v>0.5</v>
-      </c>
-      <c r="O34">
-        <v>0.5</v>
-      </c>
-      <c r="P34">
-        <v>0.5</v>
-      </c>
-      <c r="Q34">
-        <v>0.5</v>
-      </c>
-      <c r="R34">
-        <v>0.5</v>
-      </c>
-      <c r="S34">
-        <v>0.5</v>
-      </c>
-      <c r="T34">
-        <v>0.5</v>
-      </c>
-      <c r="U34">
-        <v>0.5</v>
-      </c>
-      <c r="V34">
-        <v>0.5</v>
-      </c>
-      <c r="W34">
-        <v>0.5173913043478261</v>
-      </c>
-      <c r="X34">
-        <v>0.5347826086956522</v>
-      </c>
-      <c r="Y34">
-        <v>0.5521739130434783</v>
-      </c>
-      <c r="Z34">
-        <v>0.5695652173913044</v>
-      </c>
-      <c r="AA34">
-        <v>0.5869565217391305</v>
-      </c>
-      <c r="AB34">
-        <v>0.6043478260869565</v>
-      </c>
-      <c r="AC34">
-        <v>0.6217391304347826</v>
-      </c>
-      <c r="AD34">
-        <v>0.6391304347826088</v>
-      </c>
-      <c r="AE34">
-        <v>0.6565217391304348</v>
-      </c>
-      <c r="AF34">
-        <v>0.673913043478261</v>
-      </c>
-      <c r="AG34">
-        <v>0.691304347826087</v>
-      </c>
-      <c r="AH34">
-        <v>0.7086956521739131</v>
-      </c>
-      <c r="AI34">
-        <v>0.7260869565217392</v>
-      </c>
-      <c r="AJ34">
-        <v>0.7434782608695653</v>
-      </c>
-      <c r="AK34">
-        <v>0.7608695652173914</v>
-      </c>
-      <c r="AL34">
-        <v>0.7782608695652175</v>
-      </c>
-      <c r="AM34">
-        <v>0.7956521739130434</v>
-      </c>
-      <c r="AN34">
-        <v>0.8130434782608695</v>
-      </c>
-      <c r="AO34">
-        <v>0.8304347826086957</v>
-      </c>
-      <c r="AP34">
-        <v>0.8478260869565217</v>
-      </c>
-      <c r="AQ34">
-        <v>0.8652173913043477</v>
-      </c>
-      <c r="AR34">
-        <v>0.8826086956521739</v>
-      </c>
-      <c r="AS34">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35">
-        <v>29</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="X35">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="Y35">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="Z35">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AA35">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AB35">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AC35">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AD35">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AE35">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AF35">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AG35">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AH35">
-        <v>0.4434782608695652</v>
-      </c>
-      <c r="AI35">
-        <v>0.4804347826086956</v>
-      </c>
-      <c r="AJ35">
-        <v>0.5173913043478261</v>
-      </c>
-      <c r="AK35">
-        <v>0.5543478260869565</v>
-      </c>
-      <c r="AL35">
-        <v>0.5913043478260869</v>
-      </c>
-      <c r="AM35">
-        <v>0.6282608695652173</v>
-      </c>
-      <c r="AN35">
-        <v>0.6652173913043479</v>
-      </c>
-      <c r="AO35">
-        <v>0.7021739130434782</v>
-      </c>
-      <c r="AP35">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AQ35">
-        <v>0.7760869565217391</v>
-      </c>
-      <c r="AR35">
-        <v>0.8130434782608695</v>
-      </c>
-      <c r="AS35">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36">
-        <v>29</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="X36">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="Y36">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="Z36">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AA36">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AB36">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AC36">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AD36">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AE36">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AF36">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AG36">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AH36">
-        <v>0.4434782608695652</v>
-      </c>
-      <c r="AI36">
-        <v>0.4804347826086956</v>
-      </c>
-      <c r="AJ36">
-        <v>0.5173913043478261</v>
-      </c>
-      <c r="AK36">
-        <v>0.5543478260869565</v>
-      </c>
-      <c r="AL36">
-        <v>0.5913043478260869</v>
-      </c>
-      <c r="AM36">
-        <v>0.6282608695652173</v>
-      </c>
-      <c r="AN36">
-        <v>0.6652173913043479</v>
-      </c>
-      <c r="AO36">
-        <v>0.7021739130434782</v>
-      </c>
-      <c r="AP36">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AQ36">
-        <v>0.7760869565217391</v>
-      </c>
-      <c r="AR36">
-        <v>0.8130434782608695</v>
-      </c>
-      <c r="AS36">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37">
-        <v>29</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="X37">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="Y37">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="Z37">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AA37">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AB37">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AC37">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AD37">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AE37">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AF37">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AG37">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AH37">
-        <v>0.4434782608695652</v>
-      </c>
-      <c r="AI37">
-        <v>0.4804347826086956</v>
-      </c>
-      <c r="AJ37">
-        <v>0.5173913043478261</v>
-      </c>
-      <c r="AK37">
-        <v>0.5543478260869565</v>
-      </c>
-      <c r="AL37">
-        <v>0.5913043478260869</v>
-      </c>
-      <c r="AM37">
-        <v>0.6282608695652173</v>
-      </c>
-      <c r="AN37">
-        <v>0.6652173913043479</v>
-      </c>
-      <c r="AO37">
-        <v>0.7021739130434782</v>
-      </c>
-      <c r="AP37">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AQ37">
-        <v>0.7760869565217391</v>
-      </c>
-      <c r="AR37">
-        <v>0.8130434782608695</v>
-      </c>
-      <c r="AS37">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38">
-        <v>29</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="X38">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="Y38">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="Z38">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AA38">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AB38">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AC38">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AD38">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AE38">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AF38">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AG38">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AH38">
-        <v>0.4434782608695652</v>
-      </c>
-      <c r="AI38">
-        <v>0.4804347826086956</v>
-      </c>
-      <c r="AJ38">
-        <v>0.5173913043478261</v>
-      </c>
-      <c r="AK38">
-        <v>0.5543478260869565</v>
-      </c>
-      <c r="AL38">
-        <v>0.5913043478260869</v>
-      </c>
-      <c r="AM38">
-        <v>0.6282608695652173</v>
-      </c>
-      <c r="AN38">
-        <v>0.6652173913043479</v>
-      </c>
-      <c r="AO38">
-        <v>0.7021739130434782</v>
-      </c>
-      <c r="AP38">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AQ38">
-        <v>0.7760869565217391</v>
-      </c>
-      <c r="AR38">
-        <v>0.8130434782608695</v>
-      </c>
-      <c r="AS38">
-        <v>0.85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36639,7 +31870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS27"/>
   <sheetViews>
@@ -40034,4 +35265,4773 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="X2">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="Y2">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="Z2">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="AA2">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="AB2">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="AC2">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="AD2">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="AE2">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="AF2">
+        <v>0.4347826086956522</v>
+      </c>
+      <c r="AG2">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="AH2">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AI2">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="AJ2">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="AK2">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="AL2">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="AM2">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AN2">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="AO2">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="AP2">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="AR2">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="X3">
+        <v>0.9130434782608696</v>
+      </c>
+      <c r="Y3">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="Z3">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="AA3">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="AB3">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AC3">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="AD3">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="AE3">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="AF3">
+        <v>0.5652173913043479</v>
+      </c>
+      <c r="AG3">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AH3">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="AI3">
+        <v>0.4347826086956522</v>
+      </c>
+      <c r="AJ3">
+        <v>0.3913043478260869</v>
+      </c>
+      <c r="AK3">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="AL3">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="AM3">
+        <v>0.2608695652173914</v>
+      </c>
+      <c r="AN3">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="AO3">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="AP3">
+        <v>0.1304347826086957</v>
+      </c>
+      <c r="AQ3">
+        <v>0.08695652173913049</v>
+      </c>
+      <c r="AR3">
+        <v>0.04347826086956519</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.01304347826086956</v>
+      </c>
+      <c r="X4">
+        <v>0.02608695652173913</v>
+      </c>
+      <c r="Y4">
+        <v>0.03913043478260869</v>
+      </c>
+      <c r="Z4">
+        <v>0.05217391304347826</v>
+      </c>
+      <c r="AA4">
+        <v>0.06521739130434782</v>
+      </c>
+      <c r="AB4">
+        <v>0.07826086956521738</v>
+      </c>
+      <c r="AC4">
+        <v>0.09130434782608696</v>
+      </c>
+      <c r="AD4">
+        <v>0.1043478260869565</v>
+      </c>
+      <c r="AE4">
+        <v>0.1173913043478261</v>
+      </c>
+      <c r="AF4">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="AG4">
+        <v>0.1434782608695652</v>
+      </c>
+      <c r="AH4">
+        <v>0.1565217391304348</v>
+      </c>
+      <c r="AI4">
+        <v>0.1695652173913043</v>
+      </c>
+      <c r="AJ4">
+        <v>0.1826086956521739</v>
+      </c>
+      <c r="AK4">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="AL4">
+        <v>0.208695652173913</v>
+      </c>
+      <c r="AM4">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AN4">
+        <v>0.2347826086956522</v>
+      </c>
+      <c r="AO4">
+        <v>0.2478260869565217</v>
+      </c>
+      <c r="AP4">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="AQ4">
+        <v>0.2739130434782608</v>
+      </c>
+      <c r="AR4">
+        <v>0.2869565217391304</v>
+      </c>
+      <c r="AS4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.01304347826086956</v>
+      </c>
+      <c r="X5">
+        <v>0.02608695652173913</v>
+      </c>
+      <c r="Y5">
+        <v>0.03913043478260869</v>
+      </c>
+      <c r="Z5">
+        <v>0.05217391304347826</v>
+      </c>
+      <c r="AA5">
+        <v>0.06521739130434782</v>
+      </c>
+      <c r="AB5">
+        <v>0.07826086956521738</v>
+      </c>
+      <c r="AC5">
+        <v>0.09130434782608696</v>
+      </c>
+      <c r="AD5">
+        <v>0.1043478260869565</v>
+      </c>
+      <c r="AE5">
+        <v>0.1173913043478261</v>
+      </c>
+      <c r="AF5">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="AG5">
+        <v>0.1434782608695652</v>
+      </c>
+      <c r="AH5">
+        <v>0.1565217391304348</v>
+      </c>
+      <c r="AI5">
+        <v>0.1695652173913043</v>
+      </c>
+      <c r="AJ5">
+        <v>0.1826086956521739</v>
+      </c>
+      <c r="AK5">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="AL5">
+        <v>0.208695652173913</v>
+      </c>
+      <c r="AM5">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AN5">
+        <v>0.2347826086956522</v>
+      </c>
+      <c r="AO5">
+        <v>0.2478260869565217</v>
+      </c>
+      <c r="AP5">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="AQ5">
+        <v>0.2739130434782608</v>
+      </c>
+      <c r="AR5">
+        <v>0.2869565217391304</v>
+      </c>
+      <c r="AS5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.008695652173913044</v>
+      </c>
+      <c r="X6">
+        <v>0.01739130434782609</v>
+      </c>
+      <c r="Y6">
+        <v>0.02608695652173913</v>
+      </c>
+      <c r="Z6">
+        <v>0.03478260869565217</v>
+      </c>
+      <c r="AA6">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AB6">
+        <v>0.05217391304347826</v>
+      </c>
+      <c r="AC6">
+        <v>0.06086956521739131</v>
+      </c>
+      <c r="AD6">
+        <v>0.06956521739130435</v>
+      </c>
+      <c r="AE6">
+        <v>0.0782608695652174</v>
+      </c>
+      <c r="AF6">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="AG6">
+        <v>0.09565217391304348</v>
+      </c>
+      <c r="AH6">
+        <v>0.1043478260869565</v>
+      </c>
+      <c r="AI6">
+        <v>0.1130434782608696</v>
+      </c>
+      <c r="AJ6">
+        <v>0.1217391304347826</v>
+      </c>
+      <c r="AK6">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="AL6">
+        <v>0.1391304347826087</v>
+      </c>
+      <c r="AM6">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AN6">
+        <v>0.1565217391304348</v>
+      </c>
+      <c r="AO6">
+        <v>0.1652173913043478</v>
+      </c>
+      <c r="AP6">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="AQ6">
+        <v>0.1826086956521739</v>
+      </c>
+      <c r="AR6">
+        <v>0.191304347826087</v>
+      </c>
+      <c r="AS6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0.008695652173913044</v>
+      </c>
+      <c r="X7">
+        <v>0.01739130434782609</v>
+      </c>
+      <c r="Y7">
+        <v>0.02608695652173913</v>
+      </c>
+      <c r="Z7">
+        <v>0.03478260869565217</v>
+      </c>
+      <c r="AA7">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AB7">
+        <v>0.05217391304347826</v>
+      </c>
+      <c r="AC7">
+        <v>0.06086956521739131</v>
+      </c>
+      <c r="AD7">
+        <v>0.06956521739130435</v>
+      </c>
+      <c r="AE7">
+        <v>0.0782608695652174</v>
+      </c>
+      <c r="AF7">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="AG7">
+        <v>0.09565217391304348</v>
+      </c>
+      <c r="AH7">
+        <v>0.1043478260869565</v>
+      </c>
+      <c r="AI7">
+        <v>0.1130434782608696</v>
+      </c>
+      <c r="AJ7">
+        <v>0.1217391304347826</v>
+      </c>
+      <c r="AK7">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="AL7">
+        <v>0.1391304347826087</v>
+      </c>
+      <c r="AM7">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AN7">
+        <v>0.1565217391304348</v>
+      </c>
+      <c r="AO7">
+        <v>0.1652173913043478</v>
+      </c>
+      <c r="AP7">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="AQ7">
+        <v>0.1826086956521739</v>
+      </c>
+      <c r="AR7">
+        <v>0.191304347826087</v>
+      </c>
+      <c r="AS7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="X8">
+        <v>0.9130434782608696</v>
+      </c>
+      <c r="Y8">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="Z8">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="AA8">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="AB8">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AC8">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="AD8">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="AE8">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="AF8">
+        <v>0.5652173913043479</v>
+      </c>
+      <c r="AG8">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AH8">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="AI8">
+        <v>0.4347826086956522</v>
+      </c>
+      <c r="AJ8">
+        <v>0.3913043478260869</v>
+      </c>
+      <c r="AK8">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="AL8">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="AM8">
+        <v>0.2608695652173914</v>
+      </c>
+      <c r="AN8">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="AO8">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="AP8">
+        <v>0.1304347826086957</v>
+      </c>
+      <c r="AQ8">
+        <v>0.08695652173913049</v>
+      </c>
+      <c r="AR8">
+        <v>0.04347826086956519</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.03478260869565217</v>
+      </c>
+      <c r="X9">
+        <v>0.06956521739130435</v>
+      </c>
+      <c r="Y9">
+        <v>0.1043478260869565</v>
+      </c>
+      <c r="Z9">
+        <v>0.1391304347826087</v>
+      </c>
+      <c r="AA9">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="AB9">
+        <v>0.2086956521739131</v>
+      </c>
+      <c r="AC9">
+        <v>0.2434782608695653</v>
+      </c>
+      <c r="AD9">
+        <v>0.2782608695652174</v>
+      </c>
+      <c r="AE9">
+        <v>0.3130434782608696</v>
+      </c>
+      <c r="AF9">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="AG9">
+        <v>0.3826086956521739</v>
+      </c>
+      <c r="AH9">
+        <v>0.4173913043478261</v>
+      </c>
+      <c r="AI9">
+        <v>0.4521739130434783</v>
+      </c>
+      <c r="AJ9">
+        <v>0.4869565217391305</v>
+      </c>
+      <c r="AK9">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AL9">
+        <v>0.5565217391304348</v>
+      </c>
+      <c r="AM9">
+        <v>0.591304347826087</v>
+      </c>
+      <c r="AN9">
+        <v>0.6260869565217392</v>
+      </c>
+      <c r="AO9">
+        <v>0.6608695652173914</v>
+      </c>
+      <c r="AP9">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="AQ9">
+        <v>0.7304347826086957</v>
+      </c>
+      <c r="AR9">
+        <v>0.7652173913043478</v>
+      </c>
+      <c r="AS9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.004347826086956522</v>
+      </c>
+      <c r="X10">
+        <v>0.008695652173913044</v>
+      </c>
+      <c r="Y10">
+        <v>0.01304347826086957</v>
+      </c>
+      <c r="Z10">
+        <v>0.01739130434782609</v>
+      </c>
+      <c r="AA10">
+        <v>0.02173913043478261</v>
+      </c>
+      <c r="AB10">
+        <v>0.02608695652173913</v>
+      </c>
+      <c r="AC10">
+        <v>0.03043478260869566</v>
+      </c>
+      <c r="AD10">
+        <v>0.03478260869565217</v>
+      </c>
+      <c r="AE10">
+        <v>0.0391304347826087</v>
+      </c>
+      <c r="AF10">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AG10">
+        <v>0.04782608695652174</v>
+      </c>
+      <c r="AH10">
+        <v>0.05217391304347826</v>
+      </c>
+      <c r="AI10">
+        <v>0.05652173913043478</v>
+      </c>
+      <c r="AJ10">
+        <v>0.06086956521739131</v>
+      </c>
+      <c r="AK10">
+        <v>0.06521739130434782</v>
+      </c>
+      <c r="AL10">
+        <v>0.06956521739130435</v>
+      </c>
+      <c r="AM10">
+        <v>0.07391304347826087</v>
+      </c>
+      <c r="AN10">
+        <v>0.0782608695652174</v>
+      </c>
+      <c r="AO10">
+        <v>0.08260869565217392</v>
+      </c>
+      <c r="AP10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="AQ10">
+        <v>0.09130434782608696</v>
+      </c>
+      <c r="AR10">
+        <v>0.09565217391304348</v>
+      </c>
+      <c r="AS10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0.004347826086956522</v>
+      </c>
+      <c r="X11">
+        <v>0.008695652173913044</v>
+      </c>
+      <c r="Y11">
+        <v>0.01304347826086957</v>
+      </c>
+      <c r="Z11">
+        <v>0.01739130434782609</v>
+      </c>
+      <c r="AA11">
+        <v>0.02173913043478261</v>
+      </c>
+      <c r="AB11">
+        <v>0.02608695652173913</v>
+      </c>
+      <c r="AC11">
+        <v>0.03043478260869566</v>
+      </c>
+      <c r="AD11">
+        <v>0.03478260869565217</v>
+      </c>
+      <c r="AE11">
+        <v>0.0391304347826087</v>
+      </c>
+      <c r="AF11">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AG11">
+        <v>0.04782608695652174</v>
+      </c>
+      <c r="AH11">
+        <v>0.05217391304347826</v>
+      </c>
+      <c r="AI11">
+        <v>0.05652173913043478</v>
+      </c>
+      <c r="AJ11">
+        <v>0.06086956521739131</v>
+      </c>
+      <c r="AK11">
+        <v>0.06521739130434782</v>
+      </c>
+      <c r="AL11">
+        <v>0.06956521739130435</v>
+      </c>
+      <c r="AM11">
+        <v>0.07391304347826087</v>
+      </c>
+      <c r="AN11">
+        <v>0.0782608695652174</v>
+      </c>
+      <c r="AO11">
+        <v>0.08260869565217392</v>
+      </c>
+      <c r="AP11">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="AQ11">
+        <v>0.09130434782608696</v>
+      </c>
+      <c r="AR11">
+        <v>0.09565217391304348</v>
+      </c>
+      <c r="AS11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="X12">
+        <v>0.9130434782608696</v>
+      </c>
+      <c r="Y12">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="Z12">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="AA12">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="AB12">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AC12">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="AD12">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="AE12">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="AF12">
+        <v>0.5652173913043479</v>
+      </c>
+      <c r="AG12">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AH12">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="AI12">
+        <v>0.4347826086956522</v>
+      </c>
+      <c r="AJ12">
+        <v>0.3913043478260869</v>
+      </c>
+      <c r="AK12">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="AL12">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="AM12">
+        <v>0.2608695652173914</v>
+      </c>
+      <c r="AN12">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="AO12">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="AP12">
+        <v>0.1304347826086957</v>
+      </c>
+      <c r="AQ12">
+        <v>0.08695652173913049</v>
+      </c>
+      <c r="AR12">
+        <v>0.04347826086956519</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>0.9739130434782609</v>
+      </c>
+      <c r="X13">
+        <v>0.9478260869565218</v>
+      </c>
+      <c r="Y13">
+        <v>0.9217391304347826</v>
+      </c>
+      <c r="Z13">
+        <v>0.8956521739130435</v>
+      </c>
+      <c r="AA13">
+        <v>0.8695652173913044</v>
+      </c>
+      <c r="AB13">
+        <v>0.8434782608695652</v>
+      </c>
+      <c r="AC13">
+        <v>0.817391304347826</v>
+      </c>
+      <c r="AD13">
+        <v>0.7913043478260869</v>
+      </c>
+      <c r="AE13">
+        <v>0.7652173913043478</v>
+      </c>
+      <c r="AF13">
+        <v>0.7391304347826088</v>
+      </c>
+      <c r="AG13">
+        <v>0.7130434782608696</v>
+      </c>
+      <c r="AH13">
+        <v>0.6869565217391305</v>
+      </c>
+      <c r="AI13">
+        <v>0.6608695652173914</v>
+      </c>
+      <c r="AJ13">
+        <v>0.6347826086956522</v>
+      </c>
+      <c r="AK13">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="AL13">
+        <v>0.5826086956521739</v>
+      </c>
+      <c r="AM13">
+        <v>0.5565217391304349</v>
+      </c>
+      <c r="AN13">
+        <v>0.5304347826086957</v>
+      </c>
+      <c r="AO13">
+        <v>0.5043478260869565</v>
+      </c>
+      <c r="AP13">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="AQ13">
+        <v>0.4521739130434783</v>
+      </c>
+      <c r="AR13">
+        <v>0.4260869565217391</v>
+      </c>
+      <c r="AS13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.02</v>
+      </c>
+      <c r="K14">
+        <v>0.02</v>
+      </c>
+      <c r="L14">
+        <v>0.02</v>
+      </c>
+      <c r="M14">
+        <v>0.02</v>
+      </c>
+      <c r="N14">
+        <v>0.02</v>
+      </c>
+      <c r="O14">
+        <v>0.02</v>
+      </c>
+      <c r="P14">
+        <v>0.02</v>
+      </c>
+      <c r="Q14">
+        <v>0.02</v>
+      </c>
+      <c r="R14">
+        <v>0.02</v>
+      </c>
+      <c r="S14">
+        <v>0.02</v>
+      </c>
+      <c r="T14">
+        <v>0.02</v>
+      </c>
+      <c r="U14">
+        <v>0.02</v>
+      </c>
+      <c r="V14">
+        <v>0.02</v>
+      </c>
+      <c r="W14">
+        <v>0.03978260869565217</v>
+      </c>
+      <c r="X14">
+        <v>0.05956521739130435</v>
+      </c>
+      <c r="Y14">
+        <v>0.07934782608695652</v>
+      </c>
+      <c r="Z14">
+        <v>0.09913043478260869</v>
+      </c>
+      <c r="AA14">
+        <v>0.1189130434782609</v>
+      </c>
+      <c r="AB14">
+        <v>0.138695652173913</v>
+      </c>
+      <c r="AC14">
+        <v>0.1584782608695652</v>
+      </c>
+      <c r="AD14">
+        <v>0.1782608695652174</v>
+      </c>
+      <c r="AE14">
+        <v>0.1980434782608696</v>
+      </c>
+      <c r="AF14">
+        <v>0.2178260869565217</v>
+      </c>
+      <c r="AG14">
+        <v>0.2376086956521739</v>
+      </c>
+      <c r="AH14">
+        <v>0.2573913043478261</v>
+      </c>
+      <c r="AI14">
+        <v>0.2771739130434782</v>
+      </c>
+      <c r="AJ14">
+        <v>0.2969565217391305</v>
+      </c>
+      <c r="AK14">
+        <v>0.3167391304347826</v>
+      </c>
+      <c r="AL14">
+        <v>0.3365217391304348</v>
+      </c>
+      <c r="AM14">
+        <v>0.3563043478260869</v>
+      </c>
+      <c r="AN14">
+        <v>0.3760869565217391</v>
+      </c>
+      <c r="AO14">
+        <v>0.3958695652173913</v>
+      </c>
+      <c r="AP14">
+        <v>0.4156521739130434</v>
+      </c>
+      <c r="AQ14">
+        <v>0.4354347826086956</v>
+      </c>
+      <c r="AR14">
+        <v>0.4552173913043478</v>
+      </c>
+      <c r="AS14">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.4</v>
+      </c>
+      <c r="K15">
+        <v>0.4</v>
+      </c>
+      <c r="L15">
+        <v>0.4</v>
+      </c>
+      <c r="M15">
+        <v>0.4</v>
+      </c>
+      <c r="N15">
+        <v>0.4</v>
+      </c>
+      <c r="O15">
+        <v>0.4</v>
+      </c>
+      <c r="P15">
+        <v>0.4</v>
+      </c>
+      <c r="Q15">
+        <v>0.4</v>
+      </c>
+      <c r="R15">
+        <v>0.4</v>
+      </c>
+      <c r="S15">
+        <v>0.4</v>
+      </c>
+      <c r="T15">
+        <v>0.4</v>
+      </c>
+      <c r="U15">
+        <v>0.4</v>
+      </c>
+      <c r="V15">
+        <v>0.4</v>
+      </c>
+      <c r="W15">
+        <v>0.4032608695652174</v>
+      </c>
+      <c r="X15">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="Y15">
+        <v>0.4097826086956521</v>
+      </c>
+      <c r="Z15">
+        <v>0.4130434782608696</v>
+      </c>
+      <c r="AA15">
+        <v>0.4163043478260869</v>
+      </c>
+      <c r="AB15">
+        <v>0.4195652173913044</v>
+      </c>
+      <c r="AC15">
+        <v>0.4228260869565217</v>
+      </c>
+      <c r="AD15">
+        <v>0.4260869565217391</v>
+      </c>
+      <c r="AE15">
+        <v>0.4293478260869565</v>
+      </c>
+      <c r="AF15">
+        <v>0.4326086956521739</v>
+      </c>
+      <c r="AG15">
+        <v>0.4358695652173913</v>
+      </c>
+      <c r="AH15">
+        <v>0.4391304347826087</v>
+      </c>
+      <c r="AI15">
+        <v>0.442391304347826</v>
+      </c>
+      <c r="AJ15">
+        <v>0.4456521739130435</v>
+      </c>
+      <c r="AK15">
+        <v>0.4489130434782609</v>
+      </c>
+      <c r="AL15">
+        <v>0.4521739130434783</v>
+      </c>
+      <c r="AM15">
+        <v>0.4554347826086956</v>
+      </c>
+      <c r="AN15">
+        <v>0.4586956521739131</v>
+      </c>
+      <c r="AO15">
+        <v>0.4619565217391304</v>
+      </c>
+      <c r="AP15">
+        <v>0.4652173913043478</v>
+      </c>
+      <c r="AQ15">
+        <v>0.4684782608695652</v>
+      </c>
+      <c r="AR15">
+        <v>0.4717391304347826</v>
+      </c>
+      <c r="AS15">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.02</v>
+      </c>
+      <c r="K16">
+        <v>0.02</v>
+      </c>
+      <c r="L16">
+        <v>0.02</v>
+      </c>
+      <c r="M16">
+        <v>0.02</v>
+      </c>
+      <c r="N16">
+        <v>0.02</v>
+      </c>
+      <c r="O16">
+        <v>0.02</v>
+      </c>
+      <c r="P16">
+        <v>0.02</v>
+      </c>
+      <c r="Q16">
+        <v>0.02</v>
+      </c>
+      <c r="R16">
+        <v>0.02</v>
+      </c>
+      <c r="S16">
+        <v>0.02</v>
+      </c>
+      <c r="T16">
+        <v>0.02</v>
+      </c>
+      <c r="U16">
+        <v>0.02</v>
+      </c>
+      <c r="V16">
+        <v>0.02</v>
+      </c>
+      <c r="W16">
+        <v>0.03978260869565217</v>
+      </c>
+      <c r="X16">
+        <v>0.05956521739130435</v>
+      </c>
+      <c r="Y16">
+        <v>0.07934782608695652</v>
+      </c>
+      <c r="Z16">
+        <v>0.09913043478260869</v>
+      </c>
+      <c r="AA16">
+        <v>0.1189130434782609</v>
+      </c>
+      <c r="AB16">
+        <v>0.138695652173913</v>
+      </c>
+      <c r="AC16">
+        <v>0.1584782608695652</v>
+      </c>
+      <c r="AD16">
+        <v>0.1782608695652174</v>
+      </c>
+      <c r="AE16">
+        <v>0.1980434782608696</v>
+      </c>
+      <c r="AF16">
+        <v>0.2178260869565217</v>
+      </c>
+      <c r="AG16">
+        <v>0.2376086956521739</v>
+      </c>
+      <c r="AH16">
+        <v>0.2573913043478261</v>
+      </c>
+      <c r="AI16">
+        <v>0.2771739130434782</v>
+      </c>
+      <c r="AJ16">
+        <v>0.2969565217391305</v>
+      </c>
+      <c r="AK16">
+        <v>0.3167391304347826</v>
+      </c>
+      <c r="AL16">
+        <v>0.3365217391304348</v>
+      </c>
+      <c r="AM16">
+        <v>0.3563043478260869</v>
+      </c>
+      <c r="AN16">
+        <v>0.3760869565217391</v>
+      </c>
+      <c r="AO16">
+        <v>0.3958695652173913</v>
+      </c>
+      <c r="AP16">
+        <v>0.4156521739130434</v>
+      </c>
+      <c r="AQ16">
+        <v>0.4354347826086956</v>
+      </c>
+      <c r="AR16">
+        <v>0.4552173913043478</v>
+      </c>
+      <c r="AS16">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.005851456</v>
+      </c>
+      <c r="K17">
+        <v>0.005851456</v>
+      </c>
+      <c r="L17">
+        <v>0.005851456</v>
+      </c>
+      <c r="M17">
+        <v>0.005851456</v>
+      </c>
+      <c r="N17">
+        <v>0.005851456</v>
+      </c>
+      <c r="O17">
+        <v>0.005851456</v>
+      </c>
+      <c r="P17">
+        <v>0.005851456</v>
+      </c>
+      <c r="Q17">
+        <v>0.005851456</v>
+      </c>
+      <c r="R17">
+        <v>0.005851456</v>
+      </c>
+      <c r="S17">
+        <v>0.005851456</v>
+      </c>
+      <c r="T17">
+        <v>0.005851456</v>
+      </c>
+      <c r="U17">
+        <v>0.005851456</v>
+      </c>
+      <c r="V17">
+        <v>0.005851456</v>
+      </c>
+      <c r="W17">
+        <v>0.02624921878260869</v>
+      </c>
+      <c r="X17">
+        <v>0.04664698156521739</v>
+      </c>
+      <c r="Y17">
+        <v>0.06704474434782608</v>
+      </c>
+      <c r="Z17">
+        <v>0.08744250713043478</v>
+      </c>
+      <c r="AA17">
+        <v>0.1078402699130435</v>
+      </c>
+      <c r="AB17">
+        <v>0.1282380326956522</v>
+      </c>
+      <c r="AC17">
+        <v>0.1486357954782609</v>
+      </c>
+      <c r="AD17">
+        <v>0.1690335582608695</v>
+      </c>
+      <c r="AE17">
+        <v>0.1894313210434783</v>
+      </c>
+      <c r="AF17">
+        <v>0.2098290838260869</v>
+      </c>
+      <c r="AG17">
+        <v>0.2302268466086956</v>
+      </c>
+      <c r="AH17">
+        <v>0.2506246093913043</v>
+      </c>
+      <c r="AI17">
+        <v>0.271022372173913</v>
+      </c>
+      <c r="AJ17">
+        <v>0.2914201349565217</v>
+      </c>
+      <c r="AK17">
+        <v>0.3118178977391304</v>
+      </c>
+      <c r="AL17">
+        <v>0.3322156605217391</v>
+      </c>
+      <c r="AM17">
+        <v>0.3526134233043478</v>
+      </c>
+      <c r="AN17">
+        <v>0.3730111860869565</v>
+      </c>
+      <c r="AO17">
+        <v>0.3934089488695652</v>
+      </c>
+      <c r="AP17">
+        <v>0.4138067116521739</v>
+      </c>
+      <c r="AQ17">
+        <v>0.4342044744347826</v>
+      </c>
+      <c r="AR17">
+        <v>0.4546022372173913</v>
+      </c>
+      <c r="AS17">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.005851456</v>
+      </c>
+      <c r="K18">
+        <v>0.005851456</v>
+      </c>
+      <c r="L18">
+        <v>0.005851456</v>
+      </c>
+      <c r="M18">
+        <v>0.005851456</v>
+      </c>
+      <c r="N18">
+        <v>0.005851456</v>
+      </c>
+      <c r="O18">
+        <v>0.005851456</v>
+      </c>
+      <c r="P18">
+        <v>0.005851456</v>
+      </c>
+      <c r="Q18">
+        <v>0.005851456</v>
+      </c>
+      <c r="R18">
+        <v>0.005851456</v>
+      </c>
+      <c r="S18">
+        <v>0.005851456</v>
+      </c>
+      <c r="T18">
+        <v>0.005851456</v>
+      </c>
+      <c r="U18">
+        <v>0.005851456</v>
+      </c>
+      <c r="V18">
+        <v>0.005851456</v>
+      </c>
+      <c r="W18">
+        <v>0.02624921878260869</v>
+      </c>
+      <c r="X18">
+        <v>0.04664698156521739</v>
+      </c>
+      <c r="Y18">
+        <v>0.06704474434782608</v>
+      </c>
+      <c r="Z18">
+        <v>0.08744250713043478</v>
+      </c>
+      <c r="AA18">
+        <v>0.1078402699130435</v>
+      </c>
+      <c r="AB18">
+        <v>0.1282380326956522</v>
+      </c>
+      <c r="AC18">
+        <v>0.1486357954782609</v>
+      </c>
+      <c r="AD18">
+        <v>0.1690335582608695</v>
+      </c>
+      <c r="AE18">
+        <v>0.1894313210434783</v>
+      </c>
+      <c r="AF18">
+        <v>0.2098290838260869</v>
+      </c>
+      <c r="AG18">
+        <v>0.2302268466086956</v>
+      </c>
+      <c r="AH18">
+        <v>0.2506246093913043</v>
+      </c>
+      <c r="AI18">
+        <v>0.271022372173913</v>
+      </c>
+      <c r="AJ18">
+        <v>0.2914201349565217</v>
+      </c>
+      <c r="AK18">
+        <v>0.3118178977391304</v>
+      </c>
+      <c r="AL18">
+        <v>0.3322156605217391</v>
+      </c>
+      <c r="AM18">
+        <v>0.3526134233043478</v>
+      </c>
+      <c r="AN18">
+        <v>0.3730111860869565</v>
+      </c>
+      <c r="AO18">
+        <v>0.3934089488695652</v>
+      </c>
+      <c r="AP18">
+        <v>0.4138067116521739</v>
+      </c>
+      <c r="AQ18">
+        <v>0.4342044744347826</v>
+      </c>
+      <c r="AR18">
+        <v>0.4546022372173913</v>
+      </c>
+      <c r="AS18">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.005851456</v>
+      </c>
+      <c r="K19">
+        <v>0.005851456</v>
+      </c>
+      <c r="L19">
+        <v>0.005851456</v>
+      </c>
+      <c r="M19">
+        <v>0.005851456</v>
+      </c>
+      <c r="N19">
+        <v>0.005851456</v>
+      </c>
+      <c r="O19">
+        <v>0.005851456</v>
+      </c>
+      <c r="P19">
+        <v>0.005851456</v>
+      </c>
+      <c r="Q19">
+        <v>0.005851456</v>
+      </c>
+      <c r="R19">
+        <v>0.005851456</v>
+      </c>
+      <c r="S19">
+        <v>0.005851456</v>
+      </c>
+      <c r="T19">
+        <v>0.005851456</v>
+      </c>
+      <c r="U19">
+        <v>0.005851456</v>
+      </c>
+      <c r="V19">
+        <v>0.005851456</v>
+      </c>
+      <c r="W19">
+        <v>0.02624921878260869</v>
+      </c>
+      <c r="X19">
+        <v>0.04664698156521739</v>
+      </c>
+      <c r="Y19">
+        <v>0.06704474434782608</v>
+      </c>
+      <c r="Z19">
+        <v>0.08744250713043478</v>
+      </c>
+      <c r="AA19">
+        <v>0.1078402699130435</v>
+      </c>
+      <c r="AB19">
+        <v>0.1282380326956522</v>
+      </c>
+      <c r="AC19">
+        <v>0.1486357954782609</v>
+      </c>
+      <c r="AD19">
+        <v>0.1690335582608695</v>
+      </c>
+      <c r="AE19">
+        <v>0.1894313210434783</v>
+      </c>
+      <c r="AF19">
+        <v>0.2098290838260869</v>
+      </c>
+      <c r="AG19">
+        <v>0.2302268466086956</v>
+      </c>
+      <c r="AH19">
+        <v>0.2506246093913043</v>
+      </c>
+      <c r="AI19">
+        <v>0.271022372173913</v>
+      </c>
+      <c r="AJ19">
+        <v>0.2914201349565217</v>
+      </c>
+      <c r="AK19">
+        <v>0.3118178977391304</v>
+      </c>
+      <c r="AL19">
+        <v>0.3322156605217391</v>
+      </c>
+      <c r="AM19">
+        <v>0.3526134233043478</v>
+      </c>
+      <c r="AN19">
+        <v>0.3730111860869565</v>
+      </c>
+      <c r="AO19">
+        <v>0.3934089488695652</v>
+      </c>
+      <c r="AP19">
+        <v>0.4138067116521739</v>
+      </c>
+      <c r="AQ19">
+        <v>0.4342044744347826</v>
+      </c>
+      <c r="AR19">
+        <v>0.4546022372173913</v>
+      </c>
+      <c r="AS19">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.041455807</v>
+      </c>
+      <c r="K20">
+        <v>0.041455807</v>
+      </c>
+      <c r="L20">
+        <v>0.041455807</v>
+      </c>
+      <c r="M20">
+        <v>0.041455807</v>
+      </c>
+      <c r="N20">
+        <v>0.041455807</v>
+      </c>
+      <c r="O20">
+        <v>0.041455807</v>
+      </c>
+      <c r="P20">
+        <v>0.041455807</v>
+      </c>
+      <c r="Q20">
+        <v>0.041455807</v>
+      </c>
+      <c r="R20">
+        <v>0.041455807</v>
+      </c>
+      <c r="S20">
+        <v>0.041455807</v>
+      </c>
+      <c r="T20">
+        <v>0.041455807</v>
+      </c>
+      <c r="U20">
+        <v>0.041455807</v>
+      </c>
+      <c r="V20">
+        <v>0.041455807</v>
+      </c>
+      <c r="W20">
+        <v>0.08313164147826087</v>
+      </c>
+      <c r="X20">
+        <v>0.1248074759565217</v>
+      </c>
+      <c r="Y20">
+        <v>0.1664833104347826</v>
+      </c>
+      <c r="Z20">
+        <v>0.2081591449130435</v>
+      </c>
+      <c r="AA20">
+        <v>0.2498349793913043</v>
+      </c>
+      <c r="AB20">
+        <v>0.2915108138695652</v>
+      </c>
+      <c r="AC20">
+        <v>0.3331866483478261</v>
+      </c>
+      <c r="AD20">
+        <v>0.3748624828260869</v>
+      </c>
+      <c r="AE20">
+        <v>0.4165383173043479</v>
+      </c>
+      <c r="AF20">
+        <v>0.4582141517826087</v>
+      </c>
+      <c r="AG20">
+        <v>0.4998899862608696</v>
+      </c>
+      <c r="AH20">
+        <v>0.5415658207391304</v>
+      </c>
+      <c r="AI20">
+        <v>0.5832416552173912</v>
+      </c>
+      <c r="AJ20">
+        <v>0.6249174896956522</v>
+      </c>
+      <c r="AK20">
+        <v>0.666593324173913</v>
+      </c>
+      <c r="AL20">
+        <v>0.7082691586521739</v>
+      </c>
+      <c r="AM20">
+        <v>0.7499449931304347</v>
+      </c>
+      <c r="AN20">
+        <v>0.7916208276086957</v>
+      </c>
+      <c r="AO20">
+        <v>0.8332966620869565</v>
+      </c>
+      <c r="AP20">
+        <v>0.8749724965652174</v>
+      </c>
+      <c r="AQ20">
+        <v>0.9166483310434782</v>
+      </c>
+      <c r="AR20">
+        <v>0.9583241655217392</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="V21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W21">
+        <v>0.1039130434782609</v>
+      </c>
+      <c r="X21">
+        <v>0.1378260869565217</v>
+      </c>
+      <c r="Y21">
+        <v>0.1717391304347826</v>
+      </c>
+      <c r="Z21">
+        <v>0.2056521739130435</v>
+      </c>
+      <c r="AA21">
+        <v>0.2395652173913043</v>
+      </c>
+      <c r="AB21">
+        <v>0.2734782608695652</v>
+      </c>
+      <c r="AC21">
+        <v>0.3073913043478261</v>
+      </c>
+      <c r="AD21">
+        <v>0.3413043478260869</v>
+      </c>
+      <c r="AE21">
+        <v>0.3752173913043478</v>
+      </c>
+      <c r="AF21">
+        <v>0.4091304347826087</v>
+      </c>
+      <c r="AG21">
+        <v>0.4430434782608695</v>
+      </c>
+      <c r="AH21">
+        <v>0.4769565217391304</v>
+      </c>
+      <c r="AI21">
+        <v>0.5108695652173912</v>
+      </c>
+      <c r="AJ21">
+        <v>0.5447826086956522</v>
+      </c>
+      <c r="AK21">
+        <v>0.5786956521739131</v>
+      </c>
+      <c r="AL21">
+        <v>0.6126086956521738</v>
+      </c>
+      <c r="AM21">
+        <v>0.6465217391304348</v>
+      </c>
+      <c r="AN21">
+        <v>0.6804347826086957</v>
+      </c>
+      <c r="AO21">
+        <v>0.7143478260869565</v>
+      </c>
+      <c r="AP21">
+        <v>0.7482608695652173</v>
+      </c>
+      <c r="AQ21">
+        <v>0.7821739130434783</v>
+      </c>
+      <c r="AR21">
+        <v>0.8160869565217391</v>
+      </c>
+      <c r="AS21">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
+        <v>0.5</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.5</v>
+      </c>
+      <c r="N22">
+        <v>0.5</v>
+      </c>
+      <c r="O22">
+        <v>0.5</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22">
+        <v>0.5</v>
+      </c>
+      <c r="R22">
+        <v>0.5</v>
+      </c>
+      <c r="S22">
+        <v>0.5</v>
+      </c>
+      <c r="T22">
+        <v>0.5</v>
+      </c>
+      <c r="U22">
+        <v>0.5</v>
+      </c>
+      <c r="V22">
+        <v>0.5</v>
+      </c>
+      <c r="W22">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="X22">
+        <v>0.5434782608695652</v>
+      </c>
+      <c r="Y22">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="Z22">
+        <v>0.5869565217391304</v>
+      </c>
+      <c r="AA22">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="AB22">
+        <v>0.6304347826086956</v>
+      </c>
+      <c r="AC22">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="AD22">
+        <v>0.6739130434782609</v>
+      </c>
+      <c r="AE22">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="AF22">
+        <v>0.7173913043478262</v>
+      </c>
+      <c r="AG22">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AH22">
+        <v>0.7608695652173914</v>
+      </c>
+      <c r="AI22">
+        <v>0.7826086956521738</v>
+      </c>
+      <c r="AJ22">
+        <v>0.8043478260869565</v>
+      </c>
+      <c r="AK22">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="AL22">
+        <v>0.8478260869565217</v>
+      </c>
+      <c r="AM22">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="AN22">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="AO22">
+        <v>0.9130434782608696</v>
+      </c>
+      <c r="AP22">
+        <v>0.9347826086956521</v>
+      </c>
+      <c r="AQ22">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="AR22">
+        <v>0.9782608695652174</v>
+      </c>
+      <c r="AS22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.041455807</v>
+      </c>
+      <c r="K23">
+        <v>0.041455807</v>
+      </c>
+      <c r="L23">
+        <v>0.041455807</v>
+      </c>
+      <c r="M23">
+        <v>0.041455807</v>
+      </c>
+      <c r="N23">
+        <v>0.041455807</v>
+      </c>
+      <c r="O23">
+        <v>0.041455807</v>
+      </c>
+      <c r="P23">
+        <v>0.041455807</v>
+      </c>
+      <c r="Q23">
+        <v>0.041455807</v>
+      </c>
+      <c r="R23">
+        <v>0.041455807</v>
+      </c>
+      <c r="S23">
+        <v>0.041455807</v>
+      </c>
+      <c r="T23">
+        <v>0.041455807</v>
+      </c>
+      <c r="U23">
+        <v>0.041455807</v>
+      </c>
+      <c r="V23">
+        <v>0.041455807</v>
+      </c>
+      <c r="W23">
+        <v>0.08313164147826087</v>
+      </c>
+      <c r="X23">
+        <v>0.1248074759565217</v>
+      </c>
+      <c r="Y23">
+        <v>0.1664833104347826</v>
+      </c>
+      <c r="Z23">
+        <v>0.2081591449130435</v>
+      </c>
+      <c r="AA23">
+        <v>0.2498349793913043</v>
+      </c>
+      <c r="AB23">
+        <v>0.2915108138695652</v>
+      </c>
+      <c r="AC23">
+        <v>0.3331866483478261</v>
+      </c>
+      <c r="AD23">
+        <v>0.3748624828260869</v>
+      </c>
+      <c r="AE23">
+        <v>0.4165383173043479</v>
+      </c>
+      <c r="AF23">
+        <v>0.4582141517826087</v>
+      </c>
+      <c r="AG23">
+        <v>0.4998899862608696</v>
+      </c>
+      <c r="AH23">
+        <v>0.5415658207391304</v>
+      </c>
+      <c r="AI23">
+        <v>0.5832416552173912</v>
+      </c>
+      <c r="AJ23">
+        <v>0.6249174896956522</v>
+      </c>
+      <c r="AK23">
+        <v>0.666593324173913</v>
+      </c>
+      <c r="AL23">
+        <v>0.7082691586521739</v>
+      </c>
+      <c r="AM23">
+        <v>0.7499449931304347</v>
+      </c>
+      <c r="AN23">
+        <v>0.7916208276086957</v>
+      </c>
+      <c r="AO23">
+        <v>0.8332966620869565</v>
+      </c>
+      <c r="AP23">
+        <v>0.8749724965652174</v>
+      </c>
+      <c r="AQ23">
+        <v>0.9166483310434782</v>
+      </c>
+      <c r="AR23">
+        <v>0.9583241655217392</v>
+      </c>
+      <c r="AS23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0.03721691956521739</v>
+      </c>
+      <c r="X24">
+        <v>0.07443383913043478</v>
+      </c>
+      <c r="Y24">
+        <v>0.1116507586956522</v>
+      </c>
+      <c r="Z24">
+        <v>0.1488676782608696</v>
+      </c>
+      <c r="AA24">
+        <v>0.1860845978260869</v>
+      </c>
+      <c r="AB24">
+        <v>0.2233015173913043</v>
+      </c>
+      <c r="AC24">
+        <v>0.2605184369565218</v>
+      </c>
+      <c r="AD24">
+        <v>0.2977353565217391</v>
+      </c>
+      <c r="AE24">
+        <v>0.3349522760869565</v>
+      </c>
+      <c r="AF24">
+        <v>0.3721691956521739</v>
+      </c>
+      <c r="AG24">
+        <v>0.4093861152173913</v>
+      </c>
+      <c r="AH24">
+        <v>0.4466030347826087</v>
+      </c>
+      <c r="AI24">
+        <v>0.483819954347826</v>
+      </c>
+      <c r="AJ24">
+        <v>0.5210368739130435</v>
+      </c>
+      <c r="AK24">
+        <v>0.5582537934782609</v>
+      </c>
+      <c r="AL24">
+        <v>0.5954707130434782</v>
+      </c>
+      <c r="AM24">
+        <v>0.6326876326086955</v>
+      </c>
+      <c r="AN24">
+        <v>0.6699045521739131</v>
+      </c>
+      <c r="AO24">
+        <v>0.7071214717391304</v>
+      </c>
+      <c r="AP24">
+        <v>0.7443383913043478</v>
+      </c>
+      <c r="AQ24">
+        <v>0.7815553108695652</v>
+      </c>
+      <c r="AR24">
+        <v>0.8187722304347826</v>
+      </c>
+      <c r="AS24">
+        <v>0.85598915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.85598915</v>
+      </c>
+      <c r="K25">
+        <v>0.85598915</v>
+      </c>
+      <c r="L25">
+        <v>0.85598915</v>
+      </c>
+      <c r="M25">
+        <v>0.85598915</v>
+      </c>
+      <c r="N25">
+        <v>0.85598915</v>
+      </c>
+      <c r="O25">
+        <v>0.85598915</v>
+      </c>
+      <c r="P25">
+        <v>0.85598915</v>
+      </c>
+      <c r="Q25">
+        <v>0.85598915</v>
+      </c>
+      <c r="R25">
+        <v>0.85598915</v>
+      </c>
+      <c r="S25">
+        <v>0.85598915</v>
+      </c>
+      <c r="T25">
+        <v>0.85598915</v>
+      </c>
+      <c r="U25">
+        <v>0.85598915</v>
+      </c>
+      <c r="V25">
+        <v>0.85598915</v>
+      </c>
+      <c r="W25">
+        <v>0.8187722304347826</v>
+      </c>
+      <c r="X25">
+        <v>0.7815553108695652</v>
+      </c>
+      <c r="Y25">
+        <v>0.7443383913043478</v>
+      </c>
+      <c r="Z25">
+        <v>0.7071214717391304</v>
+      </c>
+      <c r="AA25">
+        <v>0.6699045521739131</v>
+      </c>
+      <c r="AB25">
+        <v>0.6326876326086955</v>
+      </c>
+      <c r="AC25">
+        <v>0.5954707130434782</v>
+      </c>
+      <c r="AD25">
+        <v>0.5582537934782609</v>
+      </c>
+      <c r="AE25">
+        <v>0.5210368739130435</v>
+      </c>
+      <c r="AF25">
+        <v>0.4838199543478262</v>
+      </c>
+      <c r="AG25">
+        <v>0.4466030347826087</v>
+      </c>
+      <c r="AH25">
+        <v>0.4093861152173913</v>
+      </c>
+      <c r="AI25">
+        <v>0.3721691956521739</v>
+      </c>
+      <c r="AJ25">
+        <v>0.3349522760869565</v>
+      </c>
+      <c r="AK25">
+        <v>0.2977353565217391</v>
+      </c>
+      <c r="AL25">
+        <v>0.2605184369565218</v>
+      </c>
+      <c r="AM25">
+        <v>0.2233015173913044</v>
+      </c>
+      <c r="AN25">
+        <v>0.1860845978260869</v>
+      </c>
+      <c r="AO25">
+        <v>0.1488676782608696</v>
+      </c>
+      <c r="AP25">
+        <v>0.1116507586956522</v>
+      </c>
+      <c r="AQ25">
+        <v>0.07443383913043483</v>
+      </c>
+      <c r="AR25">
+        <v>0.03721691956521737</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.06</v>
+      </c>
+      <c r="K26">
+        <v>0.06</v>
+      </c>
+      <c r="L26">
+        <v>0.06</v>
+      </c>
+      <c r="M26">
+        <v>0.06</v>
+      </c>
+      <c r="N26">
+        <v>0.06</v>
+      </c>
+      <c r="O26">
+        <v>0.06</v>
+      </c>
+      <c r="P26">
+        <v>0.06</v>
+      </c>
+      <c r="Q26">
+        <v>0.06</v>
+      </c>
+      <c r="R26">
+        <v>0.06</v>
+      </c>
+      <c r="S26">
+        <v>0.06</v>
+      </c>
+      <c r="T26">
+        <v>0.06</v>
+      </c>
+      <c r="U26">
+        <v>0.06</v>
+      </c>
+      <c r="V26">
+        <v>0.06</v>
+      </c>
+      <c r="W26">
+        <v>0.09869565217391305</v>
+      </c>
+      <c r="X26">
+        <v>0.1373913043478261</v>
+      </c>
+      <c r="Y26">
+        <v>0.1760869565217391</v>
+      </c>
+      <c r="Z26">
+        <v>0.2147826086956522</v>
+      </c>
+      <c r="AA26">
+        <v>0.2534782608695652</v>
+      </c>
+      <c r="AB26">
+        <v>0.2921739130434782</v>
+      </c>
+      <c r="AC26">
+        <v>0.3308695652173913</v>
+      </c>
+      <c r="AD26">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AE26">
+        <v>0.4082608695652174</v>
+      </c>
+      <c r="AF26">
+        <v>0.4469565217391304</v>
+      </c>
+      <c r="AG26">
+        <v>0.4856521739130434</v>
+      </c>
+      <c r="AH26">
+        <v>0.5243478260869565</v>
+      </c>
+      <c r="AI26">
+        <v>0.5630434782608694</v>
+      </c>
+      <c r="AJ26">
+        <v>0.6017391304347826</v>
+      </c>
+      <c r="AK26">
+        <v>0.6404347826086956</v>
+      </c>
+      <c r="AL26">
+        <v>0.6791304347826087</v>
+      </c>
+      <c r="AM26">
+        <v>0.7178260869565217</v>
+      </c>
+      <c r="AN26">
+        <v>0.7565217391304349</v>
+      </c>
+      <c r="AO26">
+        <v>0.7952173913043479</v>
+      </c>
+      <c r="AP26">
+        <v>0.8339130434782608</v>
+      </c>
+      <c r="AQ26">
+        <v>0.8726086956521738</v>
+      </c>
+      <c r="AR26">
+        <v>0.9113043478260869</v>
+      </c>
+      <c r="AS26">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.06</v>
+      </c>
+      <c r="K27">
+        <v>0.06</v>
+      </c>
+      <c r="L27">
+        <v>0.06</v>
+      </c>
+      <c r="M27">
+        <v>0.06</v>
+      </c>
+      <c r="N27">
+        <v>0.06</v>
+      </c>
+      <c r="O27">
+        <v>0.06</v>
+      </c>
+      <c r="P27">
+        <v>0.06</v>
+      </c>
+      <c r="Q27">
+        <v>0.06</v>
+      </c>
+      <c r="R27">
+        <v>0.06</v>
+      </c>
+      <c r="S27">
+        <v>0.06</v>
+      </c>
+      <c r="T27">
+        <v>0.06</v>
+      </c>
+      <c r="U27">
+        <v>0.06</v>
+      </c>
+      <c r="V27">
+        <v>0.06</v>
+      </c>
+      <c r="W27">
+        <v>0.09869565217391305</v>
+      </c>
+      <c r="X27">
+        <v>0.1373913043478261</v>
+      </c>
+      <c r="Y27">
+        <v>0.1760869565217391</v>
+      </c>
+      <c r="Z27">
+        <v>0.2147826086956522</v>
+      </c>
+      <c r="AA27">
+        <v>0.2534782608695652</v>
+      </c>
+      <c r="AB27">
+        <v>0.2921739130434782</v>
+      </c>
+      <c r="AC27">
+        <v>0.3308695652173913</v>
+      </c>
+      <c r="AD27">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AE27">
+        <v>0.4082608695652174</v>
+      </c>
+      <c r="AF27">
+        <v>0.4469565217391304</v>
+      </c>
+      <c r="AG27">
+        <v>0.4856521739130434</v>
+      </c>
+      <c r="AH27">
+        <v>0.5243478260869565</v>
+      </c>
+      <c r="AI27">
+        <v>0.5630434782608694</v>
+      </c>
+      <c r="AJ27">
+        <v>0.6017391304347826</v>
+      </c>
+      <c r="AK27">
+        <v>0.6404347826086956</v>
+      </c>
+      <c r="AL27">
+        <v>0.6791304347826087</v>
+      </c>
+      <c r="AM27">
+        <v>0.7178260869565217</v>
+      </c>
+      <c r="AN27">
+        <v>0.7565217391304349</v>
+      </c>
+      <c r="AO27">
+        <v>0.7952173913043479</v>
+      </c>
+      <c r="AP27">
+        <v>0.8339130434782608</v>
+      </c>
+      <c r="AQ27">
+        <v>0.8726086956521738</v>
+      </c>
+      <c r="AR27">
+        <v>0.9113043478260869</v>
+      </c>
+      <c r="AS27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.06</v>
+      </c>
+      <c r="K28">
+        <v>0.06</v>
+      </c>
+      <c r="L28">
+        <v>0.06</v>
+      </c>
+      <c r="M28">
+        <v>0.06</v>
+      </c>
+      <c r="N28">
+        <v>0.06</v>
+      </c>
+      <c r="O28">
+        <v>0.06</v>
+      </c>
+      <c r="P28">
+        <v>0.06</v>
+      </c>
+      <c r="Q28">
+        <v>0.06</v>
+      </c>
+      <c r="R28">
+        <v>0.06</v>
+      </c>
+      <c r="S28">
+        <v>0.06</v>
+      </c>
+      <c r="T28">
+        <v>0.06</v>
+      </c>
+      <c r="U28">
+        <v>0.06</v>
+      </c>
+      <c r="V28">
+        <v>0.06</v>
+      </c>
+      <c r="W28">
+        <v>0.09869565217391305</v>
+      </c>
+      <c r="X28">
+        <v>0.1373913043478261</v>
+      </c>
+      <c r="Y28">
+        <v>0.1760869565217391</v>
+      </c>
+      <c r="Z28">
+        <v>0.2147826086956522</v>
+      </c>
+      <c r="AA28">
+        <v>0.2534782608695652</v>
+      </c>
+      <c r="AB28">
+        <v>0.2921739130434782</v>
+      </c>
+      <c r="AC28">
+        <v>0.3308695652173913</v>
+      </c>
+      <c r="AD28">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AE28">
+        <v>0.4082608695652174</v>
+      </c>
+      <c r="AF28">
+        <v>0.4469565217391304</v>
+      </c>
+      <c r="AG28">
+        <v>0.4856521739130434</v>
+      </c>
+      <c r="AH28">
+        <v>0.5243478260869565</v>
+      </c>
+      <c r="AI28">
+        <v>0.5630434782608694</v>
+      </c>
+      <c r="AJ28">
+        <v>0.6017391304347826</v>
+      </c>
+      <c r="AK28">
+        <v>0.6404347826086956</v>
+      </c>
+      <c r="AL28">
+        <v>0.6791304347826087</v>
+      </c>
+      <c r="AM28">
+        <v>0.7178260869565217</v>
+      </c>
+      <c r="AN28">
+        <v>0.7565217391304349</v>
+      </c>
+      <c r="AO28">
+        <v>0.7952173913043479</v>
+      </c>
+      <c r="AP28">
+        <v>0.8339130434782608</v>
+      </c>
+      <c r="AQ28">
+        <v>0.8726086956521738</v>
+      </c>
+      <c r="AR28">
+        <v>0.9113043478260869</v>
+      </c>
+      <c r="AS28">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.06</v>
+      </c>
+      <c r="K29">
+        <v>0.06</v>
+      </c>
+      <c r="L29">
+        <v>0.06</v>
+      </c>
+      <c r="M29">
+        <v>0.06</v>
+      </c>
+      <c r="N29">
+        <v>0.06</v>
+      </c>
+      <c r="O29">
+        <v>0.06</v>
+      </c>
+      <c r="P29">
+        <v>0.06</v>
+      </c>
+      <c r="Q29">
+        <v>0.06</v>
+      </c>
+      <c r="R29">
+        <v>0.06</v>
+      </c>
+      <c r="S29">
+        <v>0.06</v>
+      </c>
+      <c r="T29">
+        <v>0.06</v>
+      </c>
+      <c r="U29">
+        <v>0.06</v>
+      </c>
+      <c r="V29">
+        <v>0.06</v>
+      </c>
+      <c r="W29">
+        <v>0.09869565217391305</v>
+      </c>
+      <c r="X29">
+        <v>0.1373913043478261</v>
+      </c>
+      <c r="Y29">
+        <v>0.1760869565217391</v>
+      </c>
+      <c r="Z29">
+        <v>0.2147826086956522</v>
+      </c>
+      <c r="AA29">
+        <v>0.2534782608695652</v>
+      </c>
+      <c r="AB29">
+        <v>0.2921739130434782</v>
+      </c>
+      <c r="AC29">
+        <v>0.3308695652173913</v>
+      </c>
+      <c r="AD29">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AE29">
+        <v>0.4082608695652174</v>
+      </c>
+      <c r="AF29">
+        <v>0.4469565217391304</v>
+      </c>
+      <c r="AG29">
+        <v>0.4856521739130434</v>
+      </c>
+      <c r="AH29">
+        <v>0.5243478260869565</v>
+      </c>
+      <c r="AI29">
+        <v>0.5630434782608694</v>
+      </c>
+      <c r="AJ29">
+        <v>0.6017391304347826</v>
+      </c>
+      <c r="AK29">
+        <v>0.6404347826086956</v>
+      </c>
+      <c r="AL29">
+        <v>0.6791304347826087</v>
+      </c>
+      <c r="AM29">
+        <v>0.7178260869565217</v>
+      </c>
+      <c r="AN29">
+        <v>0.7565217391304349</v>
+      </c>
+      <c r="AO29">
+        <v>0.7952173913043479</v>
+      </c>
+      <c r="AP29">
+        <v>0.8339130434782608</v>
+      </c>
+      <c r="AQ29">
+        <v>0.8726086956521738</v>
+      </c>
+      <c r="AR29">
+        <v>0.9113043478260869</v>
+      </c>
+      <c r="AS29">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.06</v>
+      </c>
+      <c r="K30">
+        <v>0.06</v>
+      </c>
+      <c r="L30">
+        <v>0.06</v>
+      </c>
+      <c r="M30">
+        <v>0.06</v>
+      </c>
+      <c r="N30">
+        <v>0.06</v>
+      </c>
+      <c r="O30">
+        <v>0.06</v>
+      </c>
+      <c r="P30">
+        <v>0.06</v>
+      </c>
+      <c r="Q30">
+        <v>0.06</v>
+      </c>
+      <c r="R30">
+        <v>0.06</v>
+      </c>
+      <c r="S30">
+        <v>0.06</v>
+      </c>
+      <c r="T30">
+        <v>0.06</v>
+      </c>
+      <c r="U30">
+        <v>0.06</v>
+      </c>
+      <c r="V30">
+        <v>0.06</v>
+      </c>
+      <c r="W30">
+        <v>0.09869565217391305</v>
+      </c>
+      <c r="X30">
+        <v>0.1373913043478261</v>
+      </c>
+      <c r="Y30">
+        <v>0.1760869565217391</v>
+      </c>
+      <c r="Z30">
+        <v>0.2147826086956522</v>
+      </c>
+      <c r="AA30">
+        <v>0.2534782608695652</v>
+      </c>
+      <c r="AB30">
+        <v>0.2921739130434782</v>
+      </c>
+      <c r="AC30">
+        <v>0.3308695652173913</v>
+      </c>
+      <c r="AD30">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AE30">
+        <v>0.4082608695652174</v>
+      </c>
+      <c r="AF30">
+        <v>0.4469565217391304</v>
+      </c>
+      <c r="AG30">
+        <v>0.4856521739130434</v>
+      </c>
+      <c r="AH30">
+        <v>0.5243478260869565</v>
+      </c>
+      <c r="AI30">
+        <v>0.5630434782608694</v>
+      </c>
+      <c r="AJ30">
+        <v>0.6017391304347826</v>
+      </c>
+      <c r="AK30">
+        <v>0.6404347826086956</v>
+      </c>
+      <c r="AL30">
+        <v>0.6791304347826087</v>
+      </c>
+      <c r="AM30">
+        <v>0.7178260869565217</v>
+      </c>
+      <c r="AN30">
+        <v>0.7565217391304349</v>
+      </c>
+      <c r="AO30">
+        <v>0.7952173913043479</v>
+      </c>
+      <c r="AP30">
+        <v>0.8339130434782608</v>
+      </c>
+      <c r="AQ30">
+        <v>0.8726086956521738</v>
+      </c>
+      <c r="AR30">
+        <v>0.9113043478260869</v>
+      </c>
+      <c r="AS30">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0.06</v>
+      </c>
+      <c r="K31">
+        <v>0.06</v>
+      </c>
+      <c r="L31">
+        <v>0.06</v>
+      </c>
+      <c r="M31">
+        <v>0.06</v>
+      </c>
+      <c r="N31">
+        <v>0.06</v>
+      </c>
+      <c r="O31">
+        <v>0.06</v>
+      </c>
+      <c r="P31">
+        <v>0.06</v>
+      </c>
+      <c r="Q31">
+        <v>0.06</v>
+      </c>
+      <c r="R31">
+        <v>0.06</v>
+      </c>
+      <c r="S31">
+        <v>0.06</v>
+      </c>
+      <c r="T31">
+        <v>0.06</v>
+      </c>
+      <c r="U31">
+        <v>0.06</v>
+      </c>
+      <c r="V31">
+        <v>0.06</v>
+      </c>
+      <c r="W31">
+        <v>0.09869565217391305</v>
+      </c>
+      <c r="X31">
+        <v>0.1373913043478261</v>
+      </c>
+      <c r="Y31">
+        <v>0.1760869565217391</v>
+      </c>
+      <c r="Z31">
+        <v>0.2147826086956522</v>
+      </c>
+      <c r="AA31">
+        <v>0.2534782608695652</v>
+      </c>
+      <c r="AB31">
+        <v>0.2921739130434782</v>
+      </c>
+      <c r="AC31">
+        <v>0.3308695652173913</v>
+      </c>
+      <c r="AD31">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AE31">
+        <v>0.4082608695652174</v>
+      </c>
+      <c r="AF31">
+        <v>0.4469565217391304</v>
+      </c>
+      <c r="AG31">
+        <v>0.4856521739130434</v>
+      </c>
+      <c r="AH31">
+        <v>0.5243478260869565</v>
+      </c>
+      <c r="AI31">
+        <v>0.5630434782608694</v>
+      </c>
+      <c r="AJ31">
+        <v>0.6017391304347826</v>
+      </c>
+      <c r="AK31">
+        <v>0.6404347826086956</v>
+      </c>
+      <c r="AL31">
+        <v>0.6791304347826087</v>
+      </c>
+      <c r="AM31">
+        <v>0.7178260869565217</v>
+      </c>
+      <c r="AN31">
+        <v>0.7565217391304349</v>
+      </c>
+      <c r="AO31">
+        <v>0.7952173913043479</v>
+      </c>
+      <c r="AP31">
+        <v>0.8339130434782608</v>
+      </c>
+      <c r="AQ31">
+        <v>0.8726086956521738</v>
+      </c>
+      <c r="AR31">
+        <v>0.9113043478260869</v>
+      </c>
+      <c r="AS31">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.06</v>
+      </c>
+      <c r="K32">
+        <v>0.06</v>
+      </c>
+      <c r="L32">
+        <v>0.06</v>
+      </c>
+      <c r="M32">
+        <v>0.06</v>
+      </c>
+      <c r="N32">
+        <v>0.06</v>
+      </c>
+      <c r="O32">
+        <v>0.06</v>
+      </c>
+      <c r="P32">
+        <v>0.06</v>
+      </c>
+      <c r="Q32">
+        <v>0.06</v>
+      </c>
+      <c r="R32">
+        <v>0.06</v>
+      </c>
+      <c r="S32">
+        <v>0.06</v>
+      </c>
+      <c r="T32">
+        <v>0.06</v>
+      </c>
+      <c r="U32">
+        <v>0.06</v>
+      </c>
+      <c r="V32">
+        <v>0.06</v>
+      </c>
+      <c r="W32">
+        <v>0.09869565217391305</v>
+      </c>
+      <c r="X32">
+        <v>0.1373913043478261</v>
+      </c>
+      <c r="Y32">
+        <v>0.1760869565217391</v>
+      </c>
+      <c r="Z32">
+        <v>0.2147826086956522</v>
+      </c>
+      <c r="AA32">
+        <v>0.2534782608695652</v>
+      </c>
+      <c r="AB32">
+        <v>0.2921739130434782</v>
+      </c>
+      <c r="AC32">
+        <v>0.3308695652173913</v>
+      </c>
+      <c r="AD32">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AE32">
+        <v>0.4082608695652174</v>
+      </c>
+      <c r="AF32">
+        <v>0.4469565217391304</v>
+      </c>
+      <c r="AG32">
+        <v>0.4856521739130434</v>
+      </c>
+      <c r="AH32">
+        <v>0.5243478260869565</v>
+      </c>
+      <c r="AI32">
+        <v>0.5630434782608694</v>
+      </c>
+      <c r="AJ32">
+        <v>0.6017391304347826</v>
+      </c>
+      <c r="AK32">
+        <v>0.6404347826086956</v>
+      </c>
+      <c r="AL32">
+        <v>0.6791304347826087</v>
+      </c>
+      <c r="AM32">
+        <v>0.7178260869565217</v>
+      </c>
+      <c r="AN32">
+        <v>0.7565217391304349</v>
+      </c>
+      <c r="AO32">
+        <v>0.7952173913043479</v>
+      </c>
+      <c r="AP32">
+        <v>0.8339130434782608</v>
+      </c>
+      <c r="AQ32">
+        <v>0.8726086956521738</v>
+      </c>
+      <c r="AR32">
+        <v>0.9113043478260869</v>
+      </c>
+      <c r="AS32">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0.95</v>
+      </c>
+      <c r="K33">
+        <v>0.95</v>
+      </c>
+      <c r="L33">
+        <v>0.95</v>
+      </c>
+      <c r="M33">
+        <v>0.95</v>
+      </c>
+      <c r="N33">
+        <v>0.95</v>
+      </c>
+      <c r="O33">
+        <v>0.95</v>
+      </c>
+      <c r="P33">
+        <v>0.95</v>
+      </c>
+      <c r="Q33">
+        <v>0.95</v>
+      </c>
+      <c r="R33">
+        <v>0.95</v>
+      </c>
+      <c r="S33">
+        <v>0.95</v>
+      </c>
+      <c r="T33">
+        <v>0.95</v>
+      </c>
+      <c r="U33">
+        <v>0.95</v>
+      </c>
+      <c r="V33">
+        <v>0.95</v>
+      </c>
+      <c r="W33">
+        <v>0.95</v>
+      </c>
+      <c r="X33">
+        <v>0.95</v>
+      </c>
+      <c r="Y33">
+        <v>0.9499999999999998</v>
+      </c>
+      <c r="Z33">
+        <v>0.95</v>
+      </c>
+      <c r="AA33">
+        <v>0.95</v>
+      </c>
+      <c r="AB33">
+        <v>0.95</v>
+      </c>
+      <c r="AC33">
+        <v>0.95</v>
+      </c>
+      <c r="AD33">
+        <v>0.95</v>
+      </c>
+      <c r="AE33">
+        <v>0.95</v>
+      </c>
+      <c r="AF33">
+        <v>0.95</v>
+      </c>
+      <c r="AG33">
+        <v>0.95</v>
+      </c>
+      <c r="AH33">
+        <v>0.95</v>
+      </c>
+      <c r="AI33">
+        <v>0.95</v>
+      </c>
+      <c r="AJ33">
+        <v>0.95</v>
+      </c>
+      <c r="AK33">
+        <v>0.95</v>
+      </c>
+      <c r="AL33">
+        <v>0.95</v>
+      </c>
+      <c r="AM33">
+        <v>0.95</v>
+      </c>
+      <c r="AN33">
+        <v>0.95</v>
+      </c>
+      <c r="AO33">
+        <v>0.95</v>
+      </c>
+      <c r="AP33">
+        <v>0.95</v>
+      </c>
+      <c r="AQ33">
+        <v>0.95</v>
+      </c>
+      <c r="AR33">
+        <v>0.95</v>
+      </c>
+      <c r="AS33">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0.5</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+      <c r="L34">
+        <v>0.5</v>
+      </c>
+      <c r="M34">
+        <v>0.5</v>
+      </c>
+      <c r="N34">
+        <v>0.5</v>
+      </c>
+      <c r="O34">
+        <v>0.5</v>
+      </c>
+      <c r="P34">
+        <v>0.5</v>
+      </c>
+      <c r="Q34">
+        <v>0.5</v>
+      </c>
+      <c r="R34">
+        <v>0.5</v>
+      </c>
+      <c r="S34">
+        <v>0.5</v>
+      </c>
+      <c r="T34">
+        <v>0.5</v>
+      </c>
+      <c r="U34">
+        <v>0.5</v>
+      </c>
+      <c r="V34">
+        <v>0.5</v>
+      </c>
+      <c r="W34">
+        <v>0.5173913043478261</v>
+      </c>
+      <c r="X34">
+        <v>0.5347826086956522</v>
+      </c>
+      <c r="Y34">
+        <v>0.5521739130434783</v>
+      </c>
+      <c r="Z34">
+        <v>0.5695652173913044</v>
+      </c>
+      <c r="AA34">
+        <v>0.5869565217391305</v>
+      </c>
+      <c r="AB34">
+        <v>0.6043478260869565</v>
+      </c>
+      <c r="AC34">
+        <v>0.6217391304347826</v>
+      </c>
+      <c r="AD34">
+        <v>0.6391304347826088</v>
+      </c>
+      <c r="AE34">
+        <v>0.6565217391304348</v>
+      </c>
+      <c r="AF34">
+        <v>0.673913043478261</v>
+      </c>
+      <c r="AG34">
+        <v>0.691304347826087</v>
+      </c>
+      <c r="AH34">
+        <v>0.7086956521739131</v>
+      </c>
+      <c r="AI34">
+        <v>0.7260869565217392</v>
+      </c>
+      <c r="AJ34">
+        <v>0.7434782608695653</v>
+      </c>
+      <c r="AK34">
+        <v>0.7608695652173914</v>
+      </c>
+      <c r="AL34">
+        <v>0.7782608695652175</v>
+      </c>
+      <c r="AM34">
+        <v>0.7956521739130434</v>
+      </c>
+      <c r="AN34">
+        <v>0.8130434782608695</v>
+      </c>
+      <c r="AO34">
+        <v>0.8304347826086957</v>
+      </c>
+      <c r="AP34">
+        <v>0.8478260869565217</v>
+      </c>
+      <c r="AQ34">
+        <v>0.8652173913043477</v>
+      </c>
+      <c r="AR34">
+        <v>0.8826086956521739</v>
+      </c>
+      <c r="AS34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35">
+        <v>29</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0.03695652173913043</v>
+      </c>
+      <c r="X35">
+        <v>0.07391304347826086</v>
+      </c>
+      <c r="Y35">
+        <v>0.1108695652173913</v>
+      </c>
+      <c r="Z35">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AA35">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="AB35">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AC35">
+        <v>0.258695652173913</v>
+      </c>
+      <c r="AD35">
+        <v>0.2956521739130434</v>
+      </c>
+      <c r="AE35">
+        <v>0.3326086956521739</v>
+      </c>
+      <c r="AF35">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AG35">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AH35">
+        <v>0.4434782608695652</v>
+      </c>
+      <c r="AI35">
+        <v>0.4804347826086956</v>
+      </c>
+      <c r="AJ35">
+        <v>0.5173913043478261</v>
+      </c>
+      <c r="AK35">
+        <v>0.5543478260869565</v>
+      </c>
+      <c r="AL35">
+        <v>0.5913043478260869</v>
+      </c>
+      <c r="AM35">
+        <v>0.6282608695652173</v>
+      </c>
+      <c r="AN35">
+        <v>0.6652173913043479</v>
+      </c>
+      <c r="AO35">
+        <v>0.7021739130434782</v>
+      </c>
+      <c r="AP35">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AQ35">
+        <v>0.7760869565217391</v>
+      </c>
+      <c r="AR35">
+        <v>0.8130434782608695</v>
+      </c>
+      <c r="AS35">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36">
+        <v>29</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0.03695652173913043</v>
+      </c>
+      <c r="X36">
+        <v>0.07391304347826086</v>
+      </c>
+      <c r="Y36">
+        <v>0.1108695652173913</v>
+      </c>
+      <c r="Z36">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AA36">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="AB36">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AC36">
+        <v>0.258695652173913</v>
+      </c>
+      <c r="AD36">
+        <v>0.2956521739130434</v>
+      </c>
+      <c r="AE36">
+        <v>0.3326086956521739</v>
+      </c>
+      <c r="AF36">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AG36">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AH36">
+        <v>0.4434782608695652</v>
+      </c>
+      <c r="AI36">
+        <v>0.4804347826086956</v>
+      </c>
+      <c r="AJ36">
+        <v>0.5173913043478261</v>
+      </c>
+      <c r="AK36">
+        <v>0.5543478260869565</v>
+      </c>
+      <c r="AL36">
+        <v>0.5913043478260869</v>
+      </c>
+      <c r="AM36">
+        <v>0.6282608695652173</v>
+      </c>
+      <c r="AN36">
+        <v>0.6652173913043479</v>
+      </c>
+      <c r="AO36">
+        <v>0.7021739130434782</v>
+      </c>
+      <c r="AP36">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AQ36">
+        <v>0.7760869565217391</v>
+      </c>
+      <c r="AR36">
+        <v>0.8130434782608695</v>
+      </c>
+      <c r="AS36">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37">
+        <v>29</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0.03695652173913043</v>
+      </c>
+      <c r="X37">
+        <v>0.07391304347826086</v>
+      </c>
+      <c r="Y37">
+        <v>0.1108695652173913</v>
+      </c>
+      <c r="Z37">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AA37">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="AB37">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AC37">
+        <v>0.258695652173913</v>
+      </c>
+      <c r="AD37">
+        <v>0.2956521739130434</v>
+      </c>
+      <c r="AE37">
+        <v>0.3326086956521739</v>
+      </c>
+      <c r="AF37">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AG37">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AH37">
+        <v>0.4434782608695652</v>
+      </c>
+      <c r="AI37">
+        <v>0.4804347826086956</v>
+      </c>
+      <c r="AJ37">
+        <v>0.5173913043478261</v>
+      </c>
+      <c r="AK37">
+        <v>0.5543478260869565</v>
+      </c>
+      <c r="AL37">
+        <v>0.5913043478260869</v>
+      </c>
+      <c r="AM37">
+        <v>0.6282608695652173</v>
+      </c>
+      <c r="AN37">
+        <v>0.6652173913043479</v>
+      </c>
+      <c r="AO37">
+        <v>0.7021739130434782</v>
+      </c>
+      <c r="AP37">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AQ37">
+        <v>0.7760869565217391</v>
+      </c>
+      <c r="AR37">
+        <v>0.8130434782608695</v>
+      </c>
+      <c r="AS37">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38">
+        <v>29</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0.03695652173913043</v>
+      </c>
+      <c r="X38">
+        <v>0.07391304347826086</v>
+      </c>
+      <c r="Y38">
+        <v>0.1108695652173913</v>
+      </c>
+      <c r="Z38">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AA38">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="AB38">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AC38">
+        <v>0.258695652173913</v>
+      </c>
+      <c r="AD38">
+        <v>0.2956521739130434</v>
+      </c>
+      <c r="AE38">
+        <v>0.3326086956521739</v>
+      </c>
+      <c r="AF38">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AG38">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AH38">
+        <v>0.4434782608695652</v>
+      </c>
+      <c r="AI38">
+        <v>0.4804347826086956</v>
+      </c>
+      <c r="AJ38">
+        <v>0.5173913043478261</v>
+      </c>
+      <c r="AK38">
+        <v>0.5543478260869565</v>
+      </c>
+      <c r="AL38">
+        <v>0.5913043478260869</v>
+      </c>
+      <c r="AM38">
+        <v>0.6282608695652173</v>
+      </c>
+      <c r="AN38">
+        <v>0.6652173913043479</v>
+      </c>
+      <c r="AO38">
+        <v>0.7021739130434782</v>
+      </c>
+      <c r="AP38">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AQ38">
+        <v>0.7760869565217391</v>
+      </c>
+      <c r="AR38">
+        <v>0.8130434782608695</v>
+      </c>
+      <c r="AS38">
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>